--- a/run1.xlsx
+++ b/run1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://londonbusinessschool1000-my.sharepoint.com/personal/sunnyw_london_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{D6ED66BC-7A43-432B-ACC4-47729C682EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D845AC22-73AB-42D4-A932-63A000EF5CFF}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{D6ED66BC-7A43-432B-ACC4-47729C682EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C6B7A5-C6FC-4673-95ED-81E5A1304DAC}"/>
   <bookViews>
-    <workbookView xWindow="3950" yWindow="1070" windowWidth="10550" windowHeight="9740" xr2:uid="{990B4FA6-B370-42AD-8A2E-BF3037BA9C0F}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="10550" windowHeight="9740" xr2:uid="{990B4FA6-B370-42AD-8A2E-BF3037BA9C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1089">
   <si>
     <t xml:space="preserve">臺灣水泥 </t>
   </si>
@@ -2022,6 +2022,1407 @@
   </si>
   <si>
     <t>林瑞山</t>
+  </si>
+  <si>
+    <t>臺灣水泥  辜振甫</t>
+  </si>
+  <si>
+    <t>臺灣水泥  辜成允</t>
+  </si>
+  <si>
+    <t>臺灣水泥  張安平</t>
+  </si>
+  <si>
+    <t>亞洲水泥 徐旭東</t>
+  </si>
+  <si>
+    <t>嘉新水泥  張永平</t>
+  </si>
+  <si>
+    <t>嘉新水泥  張安平</t>
+  </si>
+  <si>
+    <t>嘉新水泥  張剛綸</t>
+  </si>
+  <si>
+    <t>環球水泥  顏岫峰</t>
+  </si>
+  <si>
+    <t>環球水泥  侯博義</t>
+  </si>
+  <si>
+    <t>幸福水泥  陳兩傳</t>
+  </si>
+  <si>
+    <t>信大水泥  楊塘海</t>
+  </si>
+  <si>
+    <t>信大水泥  楊忠雄</t>
+  </si>
+  <si>
+    <t>信大水泥  楊德雄</t>
+  </si>
+  <si>
+    <t>信大水泥  楊智雄</t>
+  </si>
+  <si>
+    <t>東南水泥  陳敏賢</t>
+  </si>
+  <si>
+    <t>東南水泥  陳敏斷</t>
+  </si>
+  <si>
+    <t>味全食品工業  魏應行</t>
+  </si>
+  <si>
+    <t>味全食品工業  魏應充</t>
+  </si>
+  <si>
+    <t>味全食品工業  李鳳翱</t>
+  </si>
+  <si>
+    <t>味全食品工業  王錫河</t>
+  </si>
+  <si>
+    <t>味全食品工業  陳永清</t>
+  </si>
+  <si>
+    <t>味全食品工業  陳宏裕</t>
+  </si>
+  <si>
+    <t>味王  穎川建忠</t>
+  </si>
+  <si>
+    <t>味王  陳清福</t>
+  </si>
+  <si>
+    <t>大成長城企業  韓浩然</t>
+  </si>
+  <si>
+    <t>大成長城企業  韓家宇</t>
+  </si>
+  <si>
+    <t>大西洋飲料  李鴻略</t>
+  </si>
+  <si>
+    <t>大西洋飲料  孫幼英</t>
+  </si>
+  <si>
+    <t>大西洋飲料  江國貴</t>
+  </si>
+  <si>
+    <t>大西洋飲料  王鎮民</t>
+  </si>
+  <si>
+    <t>大西洋飲料  蘇芸樂</t>
+  </si>
+  <si>
+    <t>台灣卜蜂企業  汝乾友</t>
+  </si>
+  <si>
+    <t>台灣卜蜂企業  鄭武樾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">統一企業  吳修齊	</t>
+  </si>
+  <si>
+    <t>統一企業  高清愿</t>
+  </si>
+  <si>
+    <t>統一企業  羅智先</t>
+  </si>
+  <si>
+    <t>愛之味  陳哲芳</t>
+  </si>
+  <si>
+    <t>愛之味  陳冠翰</t>
+  </si>
+  <si>
+    <t>泰山企業  詹仁道</t>
+  </si>
+  <si>
+    <t>泰山企業  詹岳霖</t>
+  </si>
+  <si>
+    <t>泰山企業  詹逸宏</t>
+  </si>
+  <si>
+    <t>泰山企業  劉偉龍</t>
+  </si>
+  <si>
+    <t>福壽實業  洪皆生</t>
+  </si>
+  <si>
+    <t>福壽實業  洪堯昆</t>
+  </si>
+  <si>
+    <t>台榮產業  陳維讓</t>
+  </si>
+  <si>
+    <t>台榮產業  陳英凱</t>
+  </si>
+  <si>
+    <t>台榮產業  陳維恭</t>
+  </si>
+  <si>
+    <t>台榮產業  陳英傑</t>
+  </si>
+  <si>
+    <t>福懋油脂  黃勳高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福懋油脂  許忠明 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">福懋油脂  許逸群 </t>
+  </si>
+  <si>
+    <t>福懋油脂  晉昇投資有限公司</t>
+  </si>
+  <si>
+    <t>佳格食品  曹德風</t>
+  </si>
+  <si>
+    <t>聯華實業控股  苗育秀</t>
+  </si>
+  <si>
+    <t>聯華實業控股  苗豐強</t>
+  </si>
+  <si>
+    <t>聯華食品工業  李開源</t>
+  </si>
+  <si>
+    <t>大統益  高清愿</t>
+  </si>
+  <si>
+    <t>大統益  羅智先</t>
+  </si>
+  <si>
+    <t>天仁茶業  李瑞河</t>
+  </si>
+  <si>
+    <t>天仁茶業  李明星</t>
+  </si>
+  <si>
+    <t>天仁茶業  李國麟</t>
+  </si>
+  <si>
+    <t>黑松  張有盛</t>
+  </si>
+  <si>
+    <t>黑松  張道炷</t>
+  </si>
+  <si>
+    <t>黑松  張道宏</t>
+  </si>
+  <si>
+    <t>黑松  張斌堂</t>
+  </si>
+  <si>
+    <t>興泰實業  昇鋒投資股份有限公司</t>
+  </si>
+  <si>
+    <t>興泰實業  興泰實業  吳金泉</t>
+  </si>
+  <si>
+    <t>興泰實業  興泰實業  安鼎投资股份有限公司</t>
+  </si>
+  <si>
+    <t>興泰實業  興泰實業  吳星澄</t>
+  </si>
+  <si>
+    <t>宏亞食品  張豪城</t>
+  </si>
+  <si>
+    <t>宏亞食品  張云綺</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業  王永慶</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業  王文渊</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業  林健男</t>
+  </si>
+  <si>
+    <t>台灣塑膠工業  郭文筆</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業  王永慶</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業  王文渊</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業  吳嘉昭</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業  吴欽仁</t>
+  </si>
+  <si>
+    <t>台灣聚合化學品  吳亦圭</t>
+  </si>
+  <si>
+    <t>華夏海灣塑膠  吳亦圭</t>
+  </si>
+  <si>
+    <t>三芳化學工業  王敬堂</t>
+  </si>
+  <si>
+    <t>三芳化學工業  林孟經</t>
+  </si>
+  <si>
+    <t>亞洲聚合  吳亦圭</t>
+  </si>
+  <si>
+    <t>台達化學工業  吳亦圭</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  張鐘潛</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  劉正元</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  江義雄</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  林文淵</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  吳怡青</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業  吳清典</t>
+  </si>
+  <si>
+    <t>國喬石油化學  辜濂松</t>
+  </si>
+  <si>
+    <t>國喬石油化學  俞顯章</t>
+  </si>
+  <si>
+    <t>國喬石油化學  吳春台</t>
+  </si>
+  <si>
+    <t>國喬石油化學  楊品正</t>
+  </si>
+  <si>
+    <t>國喬石油化學  邱德馨</t>
+  </si>
+  <si>
+    <t>聯成化學科技  苗豐強</t>
+  </si>
+  <si>
+    <t>中國石油化學工業開發(股)公司 馮啟聰</t>
+  </si>
+  <si>
+    <t>中國石油化學工業開發(股)公司 沈慶京</t>
+  </si>
+  <si>
+    <t>中國石油化學工業開發(股)公司 林克銘</t>
+  </si>
+  <si>
+    <t>中國石油化學工業開發(股)公司 陳瑞隆</t>
+  </si>
+  <si>
+    <t>達新工業  胡江河</t>
+  </si>
+  <si>
+    <t>達新工業  吳子聰</t>
+  </si>
+  <si>
+    <t>上曜建設開發  張祐銘</t>
+  </si>
+  <si>
+    <t>東陽實業廠  吳永豐</t>
+  </si>
+  <si>
+    <t>東陽實業廠  吳永茂</t>
+  </si>
+  <si>
+    <t>大洋塑膠工業  陳欽明</t>
+  </si>
+  <si>
+    <t>永裕塑膠工業  王燈輝</t>
+  </si>
+  <si>
+    <t>永裕塑膠工業  王威程</t>
+  </si>
+  <si>
+    <t>地球綜合工業  張天送</t>
+  </si>
+  <si>
+    <t>地球綜合工業  張德旭</t>
+  </si>
+  <si>
+    <t>地球綜合工業  張德明</t>
+  </si>
+  <si>
+    <t>地球綜合工業  張德照</t>
+  </si>
+  <si>
+    <t>恒大  陳文佳</t>
+  </si>
+  <si>
+    <t>恒大  黃美慧</t>
+  </si>
+  <si>
+    <t>台灣化學纖維  王永慶</t>
+  </si>
+  <si>
+    <t>台灣化學纖維  王文淵</t>
+  </si>
+  <si>
+    <t>台灣化學纖維  洪福源</t>
+  </si>
+  <si>
+    <t>昭輝實業  禾翰投資股份有限公司</t>
+  </si>
+  <si>
+    <t>昭輝實業  林詩芸</t>
+  </si>
+  <si>
+    <t>昭輝實業  林昊辰</t>
+  </si>
+  <si>
+    <t>八貫企業  劉宗熹</t>
+  </si>
+  <si>
+    <t>遠東新世紀  徐旭東</t>
+  </si>
+  <si>
+    <t>新光合成纖維  吳東進</t>
+  </si>
+  <si>
+    <t>新光合成纖維  吳東昇</t>
+  </si>
+  <si>
+    <t>南洋染整  何鈞</t>
+  </si>
+  <si>
+    <t>宏洲纖維工業  陳景仁</t>
+  </si>
+  <si>
+    <t>宏洲纖維工業  陳林富</t>
+  </si>
+  <si>
+    <t>宏洲纖維工業  陳玉明</t>
+  </si>
+  <si>
+    <t>宏洲纖維工業  詹正田</t>
+  </si>
+  <si>
+    <t>東和紡織  裕順投資開發(股)公司</t>
+  </si>
+  <si>
+    <t>東和紡織  蔡淑櫻</t>
+  </si>
+  <si>
+    <t>廣豐實業  賀鳴玉</t>
+  </si>
+  <si>
+    <t>廣豐實業  邱文達 </t>
+  </si>
+  <si>
+    <t>廣豐實業  賀錫敬</t>
+  </si>
+  <si>
+    <t>嘉裕  楊炳連</t>
+  </si>
+  <si>
+    <t>嘉裕  嚴凱泰</t>
+  </si>
+  <si>
+    <t>嘉裕  嚴陳莉蓮</t>
+  </si>
+  <si>
+    <t>嘉裕  陳伯鏞</t>
+  </si>
+  <si>
+    <t>嘉裕  黃得超</t>
+  </si>
+  <si>
+    <t>東華龍  林河輝</t>
+  </si>
+  <si>
+    <t>東華龍  林壯儒</t>
+  </si>
+  <si>
+    <t>新光紡織  吳東昇</t>
+  </si>
+  <si>
+    <t>新光紡織  吳東賢</t>
+  </si>
+  <si>
+    <t>新光紡織  吳欣鴻</t>
+  </si>
+  <si>
+    <t>新光紡織  吳昕恩</t>
+  </si>
+  <si>
+    <t>利華羊毛工業  王敬堂</t>
+  </si>
+  <si>
+    <t>利華羊毛工業  應柔爾</t>
+  </si>
+  <si>
+    <t>大魯閣實業  王金銷</t>
+  </si>
+  <si>
+    <t>大魯閣實業  林曼麗</t>
+  </si>
+  <si>
+    <t>大魯閣實業  謝修平</t>
+  </si>
+  <si>
+    <t>福懋興業  王文淵</t>
+  </si>
+  <si>
+    <t>中福國際(股)公司 黃立中</t>
+  </si>
+  <si>
+    <t>中福國際(股)公司 陸榮木</t>
+  </si>
+  <si>
+    <t>中福國際(股)公司 陳建</t>
+  </si>
+  <si>
+    <t>華友聯開發  蘇天財</t>
+  </si>
+  <si>
+    <t>華友聯開發  陸炤廷</t>
+  </si>
+  <si>
+    <t>勤益投資控股  顧肇基</t>
+  </si>
+  <si>
+    <t>勤益投資控股  顧立楷</t>
+  </si>
+  <si>
+    <t>三地開發地產  潘俊榮</t>
+  </si>
+  <si>
+    <t>三地開發地產  蔡尚斌</t>
+  </si>
+  <si>
+    <t>三地開發地產  林淑美</t>
+  </si>
+  <si>
+    <t>三地開發地產  陳季函</t>
+  </si>
+  <si>
+    <t>三地開發地產  鍾育霖</t>
+  </si>
+  <si>
+    <t>雋揚國際  陳植英</t>
+  </si>
+  <si>
+    <t>雋揚國際  侯嘉騏</t>
+  </si>
+  <si>
+    <t>臺南紡織  育鵬投資股份有限公司</t>
+  </si>
+  <si>
+    <t>臺南紡織  吳修齊</t>
+  </si>
+  <si>
+    <t>臺南紡織  鄭高輝</t>
+  </si>
+  <si>
+    <t>臺南紡織  侯博明</t>
+  </si>
+  <si>
+    <t>大東紡織  陳修忠</t>
+  </si>
+  <si>
+    <t>名軒開發  劉燈發</t>
+  </si>
+  <si>
+    <t>名軒開發  吳泓瑩</t>
+  </si>
+  <si>
+    <t>立益物流開發  蘇東榮</t>
+  </si>
+  <si>
+    <t>力麗企業  郭紹儀</t>
+  </si>
+  <si>
+    <t>大宇紡織  張煜生</t>
+  </si>
+  <si>
+    <t>大宇紡織  陳曜銘</t>
+  </si>
+  <si>
+    <t>宏和精密紡織  黃大功</t>
+  </si>
+  <si>
+    <t>力鵬企業  郭紹儀</t>
+  </si>
+  <si>
+    <t>佳和實業  翁川配</t>
+  </si>
+  <si>
+    <t>佳和實業  翁茂鍾</t>
+  </si>
+  <si>
+    <t>佳和實業  翁茂欽</t>
+  </si>
+  <si>
+    <t>佳和實業  翁偉翔</t>
+  </si>
+  <si>
+    <t>年興紡織  陳榮秋</t>
+  </si>
+  <si>
+    <t>年興紡織  陳宜鋒</t>
+  </si>
+  <si>
+    <t>年興紡織  蔡樹軒</t>
+  </si>
+  <si>
+    <t>年興紡織  陳朝國</t>
+  </si>
+  <si>
+    <t>年興紡織  陳威翰</t>
+  </si>
+  <si>
+    <t>宏益纖維工業  施振榮</t>
+  </si>
+  <si>
+    <t>宏益纖維工業  施淑賢</t>
+  </si>
+  <si>
+    <t>大將開發  葉義雄</t>
+  </si>
+  <si>
+    <t>台灣富綢纖維  洪老典</t>
+  </si>
+  <si>
+    <t>台灣富綢纖維  張煜生</t>
+  </si>
+  <si>
+    <t>集盛實業  葉守焞</t>
+  </si>
+  <si>
+    <t>怡華實業  翁茂鍾</t>
+  </si>
+  <si>
+    <t>怡華實業  黃士豪</t>
+  </si>
+  <si>
+    <t>宜進實業  詹正田</t>
+  </si>
+  <si>
+    <t>聯發紡織纖維  葉清澤</t>
+  </si>
+  <si>
+    <t>宏遠興業  席家宜</t>
+  </si>
+  <si>
+    <t>強盛新  陳壬發</t>
+  </si>
+  <si>
+    <t>得力實業  葉福林</t>
+  </si>
+  <si>
+    <t>得力實業  葉家銘</t>
+  </si>
+  <si>
+    <t>偉全實業  謝仲敏</t>
+  </si>
+  <si>
+    <t>偉全實業  陳建柱</t>
+  </si>
+  <si>
+    <t>聚隆纖維  陳秀卿</t>
+  </si>
+  <si>
+    <t>聚隆纖維  周文東</t>
+  </si>
+  <si>
+    <t>南緯實業  林瑞岳</t>
+  </si>
+  <si>
+    <t>昶和纖維興業  陳明澤</t>
+  </si>
+  <si>
+    <t>大統新創  葉泉發</t>
+  </si>
+  <si>
+    <t>首利實業  郭紹儀</t>
+  </si>
+  <si>
+    <t>首利實業  鄭傑</t>
+  </si>
+  <si>
+    <t>三洋實業  鴻鋌企業股份有限公司</t>
+  </si>
+  <si>
+    <t>三洋實業  大員尚青股份有限公司</t>
+  </si>
+  <si>
+    <t>三洋實業  黃水生</t>
+  </si>
+  <si>
+    <t>三洋實業  黃金宗</t>
+  </si>
+  <si>
+    <t>三洋實業  黃俊銘</t>
+  </si>
+  <si>
+    <t>三洋實業  陳和順</t>
+  </si>
+  <si>
+    <t>三洋實業  陳(啟)昱</t>
+  </si>
+  <si>
+    <t>三洋實業  蔣玉蓮</t>
+  </si>
+  <si>
+    <t>台南企業  楊崑茂</t>
+  </si>
+  <si>
+    <t>台南企業  楊青峯</t>
+  </si>
+  <si>
+    <t>弘裕企業  葉明裕</t>
+  </si>
+  <si>
+    <t>弘裕企業  葉明洲</t>
+  </si>
+  <si>
+    <t>弘裕企業  葉博宇</t>
+  </si>
+  <si>
+    <t>台灣業旺  翁明顯</t>
+  </si>
+  <si>
+    <t>台灣業旺  柯文彬</t>
+  </si>
+  <si>
+    <t>台灣業旺  郭俊惠</t>
+  </si>
+  <si>
+    <t>台灣業旺  陳清土</t>
+  </si>
+  <si>
+    <t>儒鴻企業  洪鎮海</t>
+  </si>
+  <si>
+    <t>儒鴻企業  王樹文</t>
+  </si>
+  <si>
+    <t>聚陽實業  周理平</t>
+  </si>
+  <si>
+    <t>士林電機廠  許育瑞</t>
+  </si>
+  <si>
+    <t>東元電機  黃茂雄</t>
+  </si>
+  <si>
+    <t>東元電機  劉兆凱</t>
+  </si>
+  <si>
+    <t>東元電機  邱純枝</t>
+  </si>
+  <si>
+    <t>東元電機  利明献</t>
+  </si>
+  <si>
+    <t>正道工業  陳國雄</t>
+  </si>
+  <si>
+    <t>正道工業  盧明光</t>
+  </si>
+  <si>
+    <t>正道工業  郭建廷</t>
+  </si>
+  <si>
+    <t>正道工業  謝麗雲</t>
+  </si>
+  <si>
+    <t>瑞利企業  呂瑞晃</t>
+  </si>
+  <si>
+    <t>瑞利企業  吳政哲</t>
+  </si>
+  <si>
+    <t>瑞利企業  吳明燦</t>
+  </si>
+  <si>
+    <t>中興電工機械  江義福</t>
+  </si>
+  <si>
+    <t>中興電工機械  江馥年</t>
+  </si>
+  <si>
+    <t>亞力電機  宋振緒</t>
+  </si>
+  <si>
+    <t>亞力電機  李文續</t>
+  </si>
+  <si>
+    <t>亞力電機  宋和業</t>
+  </si>
+  <si>
+    <t>力山工業  王坤復</t>
+  </si>
+  <si>
+    <t>力山工業  王冠祥</t>
+  </si>
+  <si>
+    <t>川飛能源  張德輝</t>
+  </si>
+  <si>
+    <t>川飛能源  張維岳</t>
+  </si>
+  <si>
+    <t>川飛能源  張慶昌</t>
+  </si>
+  <si>
+    <t>川飛能源  林慧明</t>
+  </si>
+  <si>
+    <t>川飛能源  謝秀娟</t>
+  </si>
+  <si>
+    <t>川飛能源  樓建僑</t>
+  </si>
+  <si>
+    <t>川飛能源  謝縈俞</t>
+  </si>
+  <si>
+    <t>利奇機械工業  林阿平</t>
+  </si>
+  <si>
+    <t>利奇機械工業  林育新</t>
+  </si>
+  <si>
+    <t>華城電機  許忠明</t>
+  </si>
+  <si>
+    <t>華城電機  許邦福</t>
+  </si>
+  <si>
+    <t>大億交通工業製造  吳俊億</t>
+  </si>
+  <si>
+    <t>堤維西交通工業  吳俊佶</t>
+  </si>
+  <si>
+    <t>堤維西交通工業  吳國禎</t>
+  </si>
+  <si>
+    <t>耿鼎企業  李茂源</t>
+  </si>
+  <si>
+    <t>江申工業  張覺民</t>
+  </si>
+  <si>
+    <t>江申工業  陳世全</t>
+  </si>
+  <si>
+    <t>江申工業  簡清隆</t>
+  </si>
+  <si>
+    <t>江申工業  陳昭文</t>
+  </si>
+  <si>
+    <t>日馳企業  徐義雄</t>
+  </si>
+  <si>
+    <t>鑽全實業  賴明達</t>
+  </si>
+  <si>
+    <t>鑽全實業  賴伯彥</t>
+  </si>
+  <si>
+    <t>恩德科技  謝子仁</t>
+  </si>
+  <si>
+    <t>恩德科技  廖文嘉</t>
+  </si>
+  <si>
+    <t>樂事綠能科技  樂祺投資有限公司</t>
+  </si>
+  <si>
+    <t>樂事綠能科技  葉森雄</t>
+  </si>
+  <si>
+    <t>樂事綠能科技  林榮照</t>
+  </si>
+  <si>
+    <t>樂事綠能科技  陳龍發</t>
+  </si>
+  <si>
+    <t>樂事綠能科技  陳介仁</t>
+  </si>
+  <si>
+    <t>亞崴機電  楊德華</t>
+  </si>
+  <si>
+    <t>高林股 林郁文</t>
+  </si>
+  <si>
+    <t>高林股 林陳雅子</t>
+  </si>
+  <si>
+    <t>勤美  何明憲</t>
+  </si>
+  <si>
+    <t>勤美  林廷芳</t>
+  </si>
+  <si>
+    <t>車王電子  蔡裕慶</t>
+  </si>
+  <si>
+    <t>中宇環保工程  杜金陵</t>
+  </si>
+  <si>
+    <t>中宇環保工程  李慶超</t>
+  </si>
+  <si>
+    <t>中宇環保工程  林弘男</t>
+  </si>
+  <si>
+    <t>中宇環保工程  翁朝棟</t>
+  </si>
+  <si>
+    <t>中宇環保工程  陳宗德</t>
+  </si>
+  <si>
+    <t>中宇環保工程  陳震江</t>
+  </si>
+  <si>
+    <t>中宇環保工程  謝英斌</t>
+  </si>
+  <si>
+    <t>和大工業  林炎輝</t>
+  </si>
+  <si>
+    <t>和大工業  沈國榮</t>
+  </si>
+  <si>
+    <t>廣隆光電科技  李耀銘</t>
+  </si>
+  <si>
+    <t>廣隆光電科技  李瑞勳</t>
+  </si>
+  <si>
+    <t>正峰工業  鐘明甫</t>
+  </si>
+  <si>
+    <t>正峰工業  鍾榮昌</t>
+  </si>
+  <si>
+    <t>正峰工業  李育成</t>
+  </si>
+  <si>
+    <t>正峰工業  陳碩璨</t>
+  </si>
+  <si>
+    <t>正峰工業  陳永倫</t>
+  </si>
+  <si>
+    <t>巨庭機械  莊博彥</t>
+  </si>
+  <si>
+    <t>喬福機械工業  林聖明</t>
+  </si>
+  <si>
+    <t>錩泰工業  張經金</t>
+  </si>
+  <si>
+    <t>伸興工業  林志誠</t>
+  </si>
+  <si>
+    <t>中國砂輪企業  白永傳</t>
+  </si>
+  <si>
+    <t>中國砂輪企業  白陽亮</t>
+  </si>
+  <si>
+    <t>中國砂輪企業  林陳滿麗</t>
+  </si>
+  <si>
+    <t>中國砂輪企業  林伯全</t>
+  </si>
+  <si>
+    <t>巧新科技工業  楊潮鈺</t>
+  </si>
+  <si>
+    <t>巧新科技工業  石呈澤</t>
+  </si>
+  <si>
+    <t>巧新科技工業  吳宗仁</t>
+  </si>
+  <si>
+    <t>巧新科技工業  黃聰榮</t>
+  </si>
+  <si>
+    <t>倉佑實業  鄧惠哲</t>
+  </si>
+  <si>
+    <t>倉佑實業  蘇祈澤</t>
+  </si>
+  <si>
+    <t>信錦企業  陳秋郎</t>
+  </si>
+  <si>
+    <t>程泰機械  楊德華</t>
+  </si>
+  <si>
+    <t>吉茂精密  劉彥狄</t>
+  </si>
+  <si>
+    <t>直得科技  陳麗芬</t>
+  </si>
+  <si>
+    <t>岱宇國際  林英俊</t>
+  </si>
+  <si>
+    <t>岱宇國際  林佑穎</t>
+  </si>
+  <si>
+    <t>中華電線電纜  陳金鋑</t>
+  </si>
+  <si>
+    <t>中華電線電纜  陳昭蓉</t>
+  </si>
+  <si>
+    <t>中華電線電纜  陳亮吟</t>
+  </si>
+  <si>
+    <t>聲寶  陳茂榜</t>
+  </si>
+  <si>
+    <t>聲寶  范正夫</t>
+  </si>
+  <si>
+    <t>聲寶  財團法人陳茂榜工商發展基金會</t>
+  </si>
+  <si>
+    <t>聲寶  陳盛沺</t>
+  </si>
+  <si>
+    <t>華新麗華  焦佑倫</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  王玉珍</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  胡佑國</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  吳賢明</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  王宏銘</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  劉宗仁</t>
+  </si>
+  <si>
+    <t>華榮電線電纜  王宏仁</t>
+  </si>
+  <si>
+    <t>大亞電線電纜  沈金承</t>
+  </si>
+  <si>
+    <t>大亞電線電纜  沈尚弘</t>
+  </si>
+  <si>
+    <t>中國電器  顏甘霖</t>
+  </si>
+  <si>
+    <t>中國電器  廖伯熙</t>
+  </si>
+  <si>
+    <t>中國電器  周麗真</t>
+  </si>
+  <si>
+    <t>中國電器  蕭宏宜</t>
+  </si>
+  <si>
+    <t>中國電器  劉建志</t>
+  </si>
+  <si>
+    <t>中國電器  廖銘輝</t>
+  </si>
+  <si>
+    <t>宏泰電工  陳志鵬</t>
+  </si>
+  <si>
+    <t>宏泰電工  潘武雄</t>
+  </si>
+  <si>
+    <t>宏泰電工  陳世怡</t>
+  </si>
+  <si>
+    <t>宏泰電工  久疆投資股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣三洋電機  李文峰</t>
+  </si>
+  <si>
+    <t>大山電線電纜  蘇文彬</t>
+  </si>
+  <si>
+    <t>億泰電線電纜  張明泉</t>
+  </si>
+  <si>
+    <t>億泰電線電纜  王銀河</t>
+  </si>
+  <si>
+    <t>榮星電線工業  王東憲</t>
+  </si>
+  <si>
+    <t>榮星電線工業  王東澤</t>
+  </si>
+  <si>
+    <t>合機電線電纜  楊愷悌</t>
+  </si>
+  <si>
+    <t>合機電線電纜  楊碧綺</t>
+  </si>
+  <si>
+    <t>中國化學製藥  王勳聖</t>
+  </si>
+  <si>
+    <t>中國化學製藥  王謝怡貞</t>
+  </si>
+  <si>
+    <t>南僑投資控股  陳飛龍</t>
+  </si>
+  <si>
+    <t>葡萄王生技  曾水照</t>
+  </si>
+  <si>
+    <t>葡萄王生技  曾盛麟</t>
+  </si>
+  <si>
+    <t>東南實業  趙天星</t>
+  </si>
+  <si>
+    <t>東南實業  錢蔭範</t>
+  </si>
+  <si>
+    <t>東南實業  陳榮元</t>
+  </si>
+  <si>
+    <t>和益化學工業  黃登選</t>
+  </si>
+  <si>
+    <t>和益化學工業  陳勳</t>
+  </si>
+  <si>
+    <t>和益化學工業  黃勝材</t>
+  </si>
+  <si>
+    <t>東聯化學  徐旭東</t>
+  </si>
+  <si>
+    <t>臺灣永光化學工業  陳定川</t>
+  </si>
+  <si>
+    <t>臺灣永光化學工業  陳建信</t>
+  </si>
+  <si>
+    <t>興農  楊文彬</t>
+  </si>
+  <si>
+    <t>興農  洪博彥</t>
+  </si>
+  <si>
+    <t>興農  顏子芳</t>
+  </si>
+  <si>
+    <t>國泰化工廠  曹木生</t>
+  </si>
+  <si>
+    <t>國泰化工廠  應柔爾</t>
+  </si>
+  <si>
+    <t>和桐化學  陳武雄</t>
+  </si>
+  <si>
+    <t>和桐化學  楊猷傑</t>
+  </si>
+  <si>
+    <t>和桐化學  張立秋</t>
+  </si>
+  <si>
+    <t>長興材料工業  高英士</t>
+  </si>
+  <si>
+    <t>長興材料工業  高國倫</t>
+  </si>
+  <si>
+    <t>中國人造纖維  王朝慶</t>
+  </si>
+  <si>
+    <t>中國人造纖維  王貴增</t>
+  </si>
+  <si>
+    <t>中國人造纖維  王貴賢</t>
+  </si>
+  <si>
+    <t>生達化學製藥  范進財</t>
+  </si>
+  <si>
+    <t>生達化學製藥  范滋庭</t>
+  </si>
+  <si>
+    <t>三晃  呂茂賢</t>
+  </si>
+  <si>
+    <t>三晃  黃沂源</t>
+  </si>
+  <si>
+    <t>三晃  莊宏忠</t>
+  </si>
+  <si>
+    <t>三晃  莊宏德</t>
+  </si>
+  <si>
+    <t>三晃  陳宗賢</t>
+  </si>
+  <si>
+    <t>三晃  鄭銘源</t>
+  </si>
+  <si>
+    <t>三晃  黃亭棣</t>
+  </si>
+  <si>
+    <t>台灣肥料  范振宗</t>
+  </si>
+  <si>
+    <t>台灣肥料  李金龍</t>
+  </si>
+  <si>
+    <t>台灣肥料  鍾榮吉</t>
+  </si>
+  <si>
+    <t>台灣肥料  李復興</t>
+  </si>
+  <si>
+    <t>台灣肥料  陳吉仲</t>
+  </si>
+  <si>
+    <t>台灣肥料  康信鴻</t>
+  </si>
+  <si>
+    <t>台灣肥料  黃耀興</t>
+  </si>
+  <si>
+    <t>台灣肥料  李孫榮</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  鄭達才</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  林文淵</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  鍾樂民</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  王錫欽</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  林弘男</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  何燦穎</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  羅文驥</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  杜清芳</t>
+  </si>
+  <si>
+    <t>中鋼碳素化學  謝文榮</t>
+  </si>
+  <si>
+    <t>元禎企業  陳安琪</t>
+  </si>
+  <si>
+    <t>元禎企業  徐振隆</t>
+  </si>
+  <si>
+    <t>元禎企業  許元禎</t>
+  </si>
+  <si>
+    <t>永記造漆工業  張添永</t>
+  </si>
+  <si>
+    <t>永記造漆工業  張德雄</t>
+  </si>
+  <si>
+    <t>永記造漆工業  沈鴻烈</t>
+  </si>
+  <si>
+    <t>永記造漆工業  張德仁</t>
+  </si>
+  <si>
+    <t>臺灣中華化學工業  干文元</t>
+  </si>
+  <si>
+    <t>花仙子企業  王堯倫</t>
+  </si>
+  <si>
+    <t>花仙子企業  蔡心心</t>
+  </si>
+  <si>
+    <t>美吾華  李成家</t>
+  </si>
+  <si>
+    <t>毛寶  吳賢泰</t>
+  </si>
+  <si>
+    <t>毛寶  吳瑞華</t>
+  </si>
+  <si>
+    <t>五鼎生物技術  沈燕士</t>
+  </si>
+  <si>
+    <t>杏輝藥品工業  李志文</t>
+  </si>
+  <si>
+    <t>日勝化工  何文杰</t>
+  </si>
+  <si>
+    <t>喬山健康科技  羅崑泉</t>
+  </si>
+  <si>
+    <t>臺鹽實業  餘光華</t>
+  </si>
+  <si>
+    <t>臺鹽實業  鄭寶清</t>
+  </si>
+  <si>
+    <t>臺鹽實業  邱文安</t>
+  </si>
+  <si>
+    <t>臺鹽實業  林靖</t>
+  </si>
+  <si>
+    <t>臺鹽實業  吳啟章</t>
+  </si>
+  <si>
+    <t>臺鹽實業  吳俊億</t>
+  </si>
+  <si>
+    <t>臺鹽實業  洪璽曜</t>
+  </si>
+  <si>
+    <t>臺鹽實業  楊秋興</t>
+  </si>
+  <si>
+    <t>臺鹽實業  陳啟昱</t>
+  </si>
+  <si>
+    <t>臺鹽實業  曾文生</t>
+  </si>
+  <si>
+    <t>臺鹽實業  吳容輝</t>
+  </si>
+  <si>
+    <t>臺鹽實業  劉雅娟</t>
+  </si>
+  <si>
+    <t>臺鹽實業  丁彥哲</t>
+  </si>
+  <si>
+    <t>南光化學製藥  陳旗安</t>
+  </si>
+  <si>
+    <t>南光化學製藥  陳立賢</t>
+  </si>
+  <si>
+    <t>寶齡富錦生技  林智明</t>
+  </si>
+  <si>
+    <t>寶齡富錦生技  張立秋</t>
+  </si>
+  <si>
+    <t>中化合成生技  王勳聖</t>
+  </si>
+  <si>
+    <t>中化合成生技  王謝怡貞</t>
+  </si>
+  <si>
+    <t>勝一化工  孫靜源</t>
+  </si>
+  <si>
+    <t>展宇科技材料  鄭忠義</t>
+  </si>
+  <si>
+    <t>展宇科技材料  劉漢瀛</t>
+  </si>
+  <si>
+    <t>和康生物科技  張立言</t>
+  </si>
+  <si>
+    <t>和康生物科技  徐立德</t>
+  </si>
+  <si>
+    <t>和康生物科技  林詠翔</t>
+  </si>
+  <si>
+    <t>科妍生物科技  韓開程</t>
+  </si>
+  <si>
+    <t>台灣神隆  鄭高輝</t>
+  </si>
+  <si>
+    <t>台灣神隆  羅智先</t>
+  </si>
+  <si>
+    <t>美時化學製藥  林東和</t>
+  </si>
+  <si>
+    <t>美時化學製藥  林群</t>
+  </si>
+  <si>
+    <t>美時化學製藥   Vilhelm Robert Wessman</t>
+  </si>
+  <si>
+    <t>台灣玻璃工業  林玉嘉</t>
+  </si>
+  <si>
+    <t>台灣玻璃工業  林伯豐</t>
+  </si>
+  <si>
+    <t>寶徠建設  傅兆林</t>
+  </si>
+  <si>
+    <t>寶徠建設  傅劉滿蘭</t>
+  </si>
+  <si>
+    <t>寶徠建設  傅顯貴</t>
+  </si>
+  <si>
+    <t>寶徠建設  王旭東</t>
+  </si>
+  <si>
+    <t>寶徠建設  楊克誠</t>
+  </si>
+  <si>
+    <t>寶徠建設  李左軍</t>
+  </si>
+  <si>
+    <t>寶徠建設  鍾喜吉</t>
+  </si>
+  <si>
+    <t>寶徠建設  林瑞山</t>
+  </si>
+  <si>
+    <t>日馳企業  林慧瑛</t>
   </si>
 </sst>
 </file>
@@ -2213,6 +3614,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2534,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40A4735-153D-4D2D-B873-F1A87BEA3D01}">
   <dimension ref="A1:E468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A265" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2549,9 +3954,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="str">
-        <f>_xlfn.CONCAT(B2," ",C2)</f>
-        <v>臺灣水泥  辜振甫</v>
+      <c r="A2" t="s">
+        <v>622</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2561,9 +3965,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT(B3," ",C3)</f>
-        <v>臺灣水泥  辜成允</v>
+      <c r="A3" t="s">
+        <v>623</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -2573,9 +3976,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>臺灣水泥  張安平</v>
+      <c r="A4" t="s">
+        <v>624</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -2585,9 +3987,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>亞洲水泥 徐旭東</v>
+      <c r="A5" t="s">
+        <v>625</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -2597,9 +3998,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>嘉新水泥  張永平</v>
+      <c r="A6" t="s">
+        <v>626</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -2609,9 +4009,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>嘉新水泥  張安平</v>
+      <c r="A7" t="s">
+        <v>627</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2621,9 +4020,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>嘉新水泥  張剛綸</v>
+      <c r="A8" t="s">
+        <v>628</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -2633,9 +4031,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>環球水泥  顏岫峰</v>
+      <c r="A9" t="s">
+        <v>629</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -2645,9 +4042,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>環球水泥  侯博義</v>
+      <c r="A10" t="s">
+        <v>630</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2657,9 +4053,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>幸福水泥  陳兩傳</v>
+      <c r="A11" t="s">
+        <v>631</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -2669,9 +4064,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>信大水泥  楊塘海</v>
+      <c r="A12" t="s">
+        <v>632</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -2681,9 +4075,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>信大水泥  楊忠雄</v>
+      <c r="A13" t="s">
+        <v>633</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -2693,9 +4086,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>信大水泥  楊德雄</v>
+      <c r="A14" t="s">
+        <v>634</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -2705,9 +4097,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>信大水泥  楊智雄</v>
+      <c r="A15" t="s">
+        <v>635</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2717,9 +4108,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>東南水泥  陳敏賢</v>
+      <c r="A16" t="s">
+        <v>636</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -2729,9 +4119,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>東南水泥  陳敏斷</v>
+      <c r="A17" t="s">
+        <v>637</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -2741,9 +4130,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  魏應行</v>
+      <c r="A18" t="s">
+        <v>638</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -2753,9 +4141,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  魏應充</v>
+      <c r="A19" t="s">
+        <v>639</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -2765,9 +4152,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  李鳳翱</v>
+      <c r="A20" t="s">
+        <v>640</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -2777,9 +4163,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  王錫河</v>
+      <c r="A21" t="s">
+        <v>641</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -2789,9 +4174,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  陳永清</v>
+      <c r="A22" t="s">
+        <v>642</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -2801,9 +4185,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>味全食品工業  陳宏裕</v>
+      <c r="A23" t="s">
+        <v>643</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2813,9 +4196,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>味王  穎川建忠</v>
+      <c r="A24" t="s">
+        <v>644</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>29</v>
@@ -2825,9 +4207,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>味王  陳清福</v>
+      <c r="A25" t="s">
+        <v>645</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>29</v>
@@ -2837,9 +4218,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>大成長城企業  韓浩然</v>
+      <c r="A26" t="s">
+        <v>646</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
@@ -2849,9 +4229,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>大成長城企業  韓家宇</v>
+      <c r="A27" t="s">
+        <v>647</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
@@ -2861,9 +4240,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>大西洋飲料  李鴻略</v>
+      <c r="A28" t="s">
+        <v>648</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -2873,9 +4251,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>大西洋飲料  孫幼英</v>
+      <c r="A29" t="s">
+        <v>649</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -2885,9 +4262,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>大西洋飲料  江國貴</v>
+      <c r="A30" t="s">
+        <v>650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -2897,9 +4273,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>大西洋飲料  王鎮民</v>
+      <c r="A31" t="s">
+        <v>651</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
@@ -2909,9 +4284,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>大西洋飲料  蘇芸樂</v>
+      <c r="A32" t="s">
+        <v>652</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -2921,9 +4295,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>台灣卜蜂企業  汝乾友</v>
+      <c r="A33" t="s">
+        <v>653</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -2933,9 +4306,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>台灣卜蜂企業  鄭武樾</v>
+      <c r="A34" t="s">
+        <v>654</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
@@ -2945,9 +4317,8 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">統一企業  吳修齊	</v>
+      <c r="A35" t="s">
+        <v>655</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
@@ -2957,9 +4328,8 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>統一企業  高清愿</v>
+      <c r="A36" t="s">
+        <v>656</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
@@ -2969,9 +4339,8 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>統一企業  羅智先</v>
+      <c r="A37" t="s">
+        <v>657</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
@@ -2981,9 +4350,8 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>愛之味  陳哲芳</v>
+      <c r="A38" t="s">
+        <v>658</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>48</v>
@@ -2993,9 +4361,8 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>愛之味  陳冠翰</v>
+      <c r="A39" t="s">
+        <v>659</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
@@ -3005,9 +4372,8 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>泰山企業  詹仁道</v>
+      <c r="A40" t="s">
+        <v>660</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>51</v>
@@ -3017,9 +4383,8 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>泰山企業  詹岳霖</v>
+      <c r="A41" t="s">
+        <v>661</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>51</v>
@@ -3029,9 +4394,8 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>泰山企業  詹逸宏</v>
+      <c r="A42" t="s">
+        <v>662</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
@@ -3041,9 +4405,8 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>泰山企業  劉偉龍</v>
+      <c r="A43" t="s">
+        <v>663</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>51</v>
@@ -3053,9 +4416,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>福壽實業  洪皆生</v>
+      <c r="A44" t="s">
+        <v>664</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>56</v>
@@ -3065,9 +4427,8 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>福壽實業  洪堯昆</v>
+      <c r="A45" t="s">
+        <v>665</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>56</v>
@@ -3077,9 +4438,8 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>台榮產業  陳維讓</v>
+      <c r="A46" t="s">
+        <v>666</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>59</v>
@@ -3089,9 +4449,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>台榮產業  陳英凱</v>
+      <c r="A47" t="s">
+        <v>667</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>59</v>
@@ -3101,9 +4460,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>台榮產業  陳維恭</v>
+      <c r="A48" t="s">
+        <v>668</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>59</v>
@@ -3113,9 +4471,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>台榮產業  陳英傑</v>
+      <c r="A49" t="s">
+        <v>669</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>59</v>
@@ -3125,9 +4482,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>福懋油脂  黃勳高</v>
+      <c r="A50" t="s">
+        <v>670</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>64</v>
@@ -3137,9 +4493,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">福懋油脂  許忠明 </v>
+      <c r="A51" t="s">
+        <v>671</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>64</v>
@@ -3149,9 +4504,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">福懋油脂  許逸群 </v>
+      <c r="A52" t="s">
+        <v>672</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>64</v>
@@ -3161,9 +4515,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>福懋油脂  晉昇投資有限公司</v>
+      <c r="A53" t="s">
+        <v>673</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>64</v>
@@ -3173,9 +4526,8 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>佳格食品  曹德風</v>
+      <c r="A54" t="s">
+        <v>674</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>69</v>
@@ -3185,9 +4537,8 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>聯華實業控股  苗育秀</v>
+      <c r="A55" t="s">
+        <v>675</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>71</v>
@@ -3197,9 +4548,8 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>聯華實業控股  苗豐強</v>
+      <c r="A56" t="s">
+        <v>676</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>71</v>
@@ -3209,9 +4559,8 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>聯華食品工業  李開源</v>
+      <c r="A57" t="s">
+        <v>677</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>74</v>
@@ -3221,9 +4570,8 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>大統益  高清愿</v>
+      <c r="A58" t="s">
+        <v>678</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>76</v>
@@ -3233,9 +4581,8 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>大統益  羅智先</v>
+      <c r="A59" t="s">
+        <v>679</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>76</v>
@@ -3245,9 +4592,8 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>天仁茶業  李瑞河</v>
+      <c r="A60" t="s">
+        <v>680</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>77</v>
@@ -3257,9 +4603,8 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>天仁茶業  李明星</v>
+      <c r="A61" t="s">
+        <v>681</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>77</v>
@@ -3269,9 +4614,8 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>天仁茶業  李國麟</v>
+      <c r="A62" t="s">
+        <v>682</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>77</v>
@@ -3281,9 +4625,8 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>黑松  張有盛</v>
+      <c r="A63" t="s">
+        <v>683</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>81</v>
@@ -3293,9 +4636,8 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>黑松  張道炷</v>
+      <c r="A64" t="s">
+        <v>684</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>81</v>
@@ -3305,9 +4647,8 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>黑松  張道宏</v>
+      <c r="A65" t="s">
+        <v>685</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>81</v>
@@ -3317,9 +4658,8 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="str">
-        <f t="shared" si="0"/>
-        <v>黑松  張斌堂</v>
+      <c r="A66" t="s">
+        <v>686</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>81</v>
@@ -3329,9 +4669,8 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="1">_xlfn.CONCAT(B67," ",C67)</f>
-        <v>興泰實業  昇鋒投資股份有限公司</v>
+      <c r="A67" t="s">
+        <v>687</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>86</v>
@@ -3341,9 +4680,8 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>興泰實業  興泰實業  吳金泉</v>
+      <c r="A68" t="s">
+        <v>688</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>86</v>
@@ -3353,9 +4691,8 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>興泰實業  興泰實業  安鼎投资股份有限公司</v>
+      <c r="A69" t="s">
+        <v>689</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>86</v>
@@ -3365,9 +4702,8 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>興泰實業  興泰實業  吳星澄</v>
+      <c r="A70" t="s">
+        <v>690</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>86</v>
@@ -3377,9 +4713,8 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v>宏亞食品  張豪城</v>
+      <c r="A71" t="s">
+        <v>691</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>91</v>
@@ -3389,9 +4724,8 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>宏亞食品  張云綺</v>
+      <c r="A72" t="s">
+        <v>692</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>91</v>
@@ -3401,9 +4735,8 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣塑膠工業  王永慶</v>
+      <c r="A73" t="s">
+        <v>693</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>94</v>
@@ -3413,9 +4746,8 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣塑膠工業  王文渊</v>
+      <c r="A74" t="s">
+        <v>694</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>94</v>
@@ -3425,9 +4757,8 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣塑膠工業  林健男</v>
+      <c r="A75" t="s">
+        <v>695</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>94</v>
@@ -3437,9 +4768,8 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣塑膠工業  郭文筆</v>
+      <c r="A76" t="s">
+        <v>696</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>94</v>
@@ -3449,9 +4779,8 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>南亞塑膠工業  王永慶</v>
+      <c r="A77" t="s">
+        <v>697</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>99</v>
@@ -3461,9 +4790,8 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>南亞塑膠工業  王文渊</v>
+      <c r="A78" t="s">
+        <v>698</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>99</v>
@@ -3473,9 +4801,8 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>南亞塑膠工業  吳嘉昭</v>
+      <c r="A79" t="s">
+        <v>699</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>99</v>
@@ -3485,9 +4812,8 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>南亞塑膠工業  吴欽仁</v>
+      <c r="A80" t="s">
+        <v>700</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>99</v>
@@ -3497,9 +4823,8 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣聚合化學品  吳亦圭</v>
+      <c r="A81" t="s">
+        <v>701</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>102</v>
@@ -3509,9 +4834,8 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>華夏海灣塑膠  吳亦圭</v>
+      <c r="A82" t="s">
+        <v>702</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>104</v>
@@ -3521,9 +4845,8 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>三芳化學工業  王敬堂</v>
+      <c r="A83" t="s">
+        <v>703</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>105</v>
@@ -3533,9 +4856,8 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>三芳化學工業  林孟經</v>
+      <c r="A84" t="s">
+        <v>704</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>105</v>
@@ -3545,9 +4867,8 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="str">
-        <f t="shared" si="1"/>
-        <v>亞洲聚合  吳亦圭</v>
+      <c r="A85" t="s">
+        <v>705</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>108</v>
@@ -3557,9 +4878,8 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="str">
-        <f t="shared" si="1"/>
-        <v>台達化學工業  吳亦圭</v>
+      <c r="A86" t="s">
+        <v>706</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>109</v>
@@ -3569,9 +4889,8 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  張鐘潛</v>
+      <c r="A87" t="s">
+        <v>707</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>110</v>
@@ -3581,9 +4900,8 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  劉正元</v>
+      <c r="A88" t="s">
+        <v>708</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>110</v>
@@ -3593,9 +4911,8 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  江義雄</v>
+      <c r="A89" t="s">
+        <v>709</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>110</v>
@@ -3605,9 +4922,8 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  林文淵</v>
+      <c r="A90" t="s">
+        <v>710</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>110</v>
@@ -3617,9 +4933,8 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  吳怡青</v>
+      <c r="A91" t="s">
+        <v>711</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>110</v>
@@ -3629,9 +4944,8 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣苯乙烯工業  吳清典</v>
+      <c r="A92" t="s">
+        <v>712</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>110</v>
@@ -3641,9 +4955,8 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="str">
-        <f t="shared" si="1"/>
-        <v>國喬石油化學  辜濂松</v>
+      <c r="A93" t="s">
+        <v>713</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>117</v>
@@ -3653,9 +4966,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="str">
-        <f t="shared" si="1"/>
-        <v>國喬石油化學  俞顯章</v>
+      <c r="A94" t="s">
+        <v>714</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>117</v>
@@ -3665,9 +4977,8 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="str">
-        <f t="shared" si="1"/>
-        <v>國喬石油化學  吳春台</v>
+      <c r="A95" t="s">
+        <v>715</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>117</v>
@@ -3677,9 +4988,8 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="str">
-        <f t="shared" si="1"/>
-        <v>國喬石油化學  楊品正</v>
+      <c r="A96" t="s">
+        <v>716</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>117</v>
@@ -3689,9 +4999,8 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="str">
-        <f t="shared" si="1"/>
-        <v>國喬石油化學  邱德馨</v>
+      <c r="A97" t="s">
+        <v>717</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>117</v>
@@ -3701,9 +5010,8 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="str">
-        <f t="shared" si="1"/>
-        <v>聯成化學科技  苗豐強</v>
+      <c r="A98" t="s">
+        <v>718</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>123</v>
@@ -3713,9 +5021,8 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="str">
-        <f t="shared" si="1"/>
-        <v>中國石油化學工業開發(股)公司 馮啟聰</v>
+      <c r="A99" t="s">
+        <v>719</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>124</v>
@@ -3725,9 +5032,8 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>中國石油化學工業開發(股)公司 沈慶京</v>
+      <c r="A100" t="s">
+        <v>720</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>124</v>
@@ -3737,9 +5043,8 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>中國石油化學工業開發(股)公司 林克銘</v>
+      <c r="A101" t="s">
+        <v>721</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>124</v>
@@ -3749,9 +5054,8 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>中國石油化學工業開發(股)公司 陳瑞隆</v>
+      <c r="A102" t="s">
+        <v>722</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>124</v>
@@ -3761,9 +5065,8 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>達新工業  胡江河</v>
+      <c r="A103" t="s">
+        <v>723</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>129</v>
@@ -3773,9 +5076,8 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>達新工業  吳子聰</v>
+      <c r="A104" t="s">
+        <v>724</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>129</v>
@@ -3785,9 +5087,8 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>上曜建設開發  張祐銘</v>
+      <c r="A105" t="s">
+        <v>725</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>132</v>
@@ -3797,9 +5098,8 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>東陽實業廠  吳永豐</v>
+      <c r="A106" t="s">
+        <v>726</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>134</v>
@@ -3809,9 +5109,8 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>東陽實業廠  吳永茂</v>
+      <c r="A107" t="s">
+        <v>727</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>134</v>
@@ -3821,9 +5120,8 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>大洋塑膠工業  陳欽明</v>
+      <c r="A108" t="s">
+        <v>728</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>137</v>
@@ -3833,9 +5131,8 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>永裕塑膠工業  王燈輝</v>
+      <c r="A109" t="s">
+        <v>729</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>139</v>
@@ -3845,9 +5142,8 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>永裕塑膠工業  王威程</v>
+      <c r="A110" t="s">
+        <v>730</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>139</v>
@@ -3857,9 +5153,8 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="str">
-        <f t="shared" si="1"/>
-        <v>地球綜合工業  張天送</v>
+      <c r="A111" t="s">
+        <v>731</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>142</v>
@@ -3869,9 +5164,8 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" t="str">
-        <f t="shared" si="1"/>
-        <v>地球綜合工業  張德旭</v>
+      <c r="A112" t="s">
+        <v>732</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>142</v>
@@ -3881,9 +5175,8 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="str">
-        <f t="shared" si="1"/>
-        <v>地球綜合工業  張德明</v>
+      <c r="A113" t="s">
+        <v>733</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>142</v>
@@ -3893,9 +5186,8 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="str">
-        <f t="shared" si="1"/>
-        <v>地球綜合工業  張德照</v>
+      <c r="A114" t="s">
+        <v>734</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>142</v>
@@ -3905,9 +5197,8 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" t="str">
-        <f t="shared" si="1"/>
-        <v>恒大  陳文佳</v>
+      <c r="A115" t="s">
+        <v>735</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>147</v>
@@ -3917,9 +5208,8 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="str">
-        <f t="shared" si="1"/>
-        <v>恒大  黃美慧</v>
+      <c r="A116" t="s">
+        <v>736</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>147</v>
@@ -3929,9 +5219,8 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣化學纖維  王永慶</v>
+      <c r="A117" t="s">
+        <v>737</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>150</v>
@@ -3941,9 +5230,8 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣化學纖維  王文淵</v>
+      <c r="A118" t="s">
+        <v>738</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>150</v>
@@ -3953,9 +5241,8 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="str">
-        <f t="shared" si="1"/>
-        <v>台灣化學纖維  洪福源</v>
+      <c r="A119" t="s">
+        <v>739</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>150</v>
@@ -3965,9 +5252,8 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="str">
-        <f t="shared" si="1"/>
-        <v>昭輝實業  禾翰投資股份有限公司</v>
+      <c r="A120" t="s">
+        <v>740</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>153</v>
@@ -3977,9 +5263,8 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="str">
-        <f t="shared" si="1"/>
-        <v>昭輝實業  林詩芸</v>
+      <c r="A121" t="s">
+        <v>741</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>153</v>
@@ -3989,9 +5274,8 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="str">
-        <f t="shared" si="1"/>
-        <v>昭輝實業  林昊辰</v>
+      <c r="A122" t="s">
+        <v>742</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>153</v>
@@ -4001,9 +5285,8 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>八貫企業  劉宗熹</v>
+      <c r="A123" t="s">
+        <v>743</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>157</v>
@@ -4013,9 +5296,8 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="str">
-        <f t="shared" si="1"/>
-        <v>遠東新世紀  徐旭東</v>
+      <c r="A124" t="s">
+        <v>744</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>159</v>
@@ -4025,9 +5307,8 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="str">
-        <f t="shared" si="1"/>
-        <v>新光合成纖維  吳東進</v>
+      <c r="A125" t="s">
+        <v>745</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>160</v>
@@ -4037,9 +5318,8 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="str">
-        <f t="shared" si="1"/>
-        <v>新光合成纖維  吳東昇</v>
+      <c r="A126" t="s">
+        <v>746</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>160</v>
@@ -4049,9 +5329,8 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" t="str">
-        <f t="shared" si="1"/>
-        <v>南洋染整  何鈞</v>
+      <c r="A127" t="s">
+        <v>747</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>163</v>
@@ -4061,9 +5340,8 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="str">
-        <f t="shared" si="1"/>
-        <v>宏洲纖維工業  陳景仁</v>
+      <c r="A128" t="s">
+        <v>748</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>165</v>
@@ -4073,9 +5351,8 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>宏洲纖維工業  陳林富</v>
+      <c r="A129" t="s">
+        <v>749</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>165</v>
@@ -4085,9 +5362,8 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="str">
-        <f t="shared" si="1"/>
-        <v>宏洲纖維工業  陳玉明</v>
+      <c r="A130" t="s">
+        <v>750</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>165</v>
@@ -4097,9 +5373,8 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="str">
-        <f t="shared" ref="A131:A194" si="2">_xlfn.CONCAT(B131," ",C131)</f>
-        <v>宏洲纖維工業  詹正田</v>
+      <c r="A131" t="s">
+        <v>751</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>165</v>
@@ -4109,9 +5384,8 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>東和紡織  裕順投資開發(股)公司</v>
+      <c r="A132" t="s">
+        <v>752</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>170</v>
@@ -4121,9 +5395,8 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>東和紡織  蔡淑櫻</v>
+      <c r="A133" t="s">
+        <v>753</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>170</v>
@@ -4133,9 +5406,8 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>廣豐實業  賀鳴玉</v>
+      <c r="A134" t="s">
+        <v>754</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>173</v>
@@ -4145,9 +5417,8 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>廣豐實業  邱文達 </v>
+      <c r="A135" t="s">
+        <v>755</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>173</v>
@@ -4157,9 +5428,8 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>廣豐實業  賀錫敬</v>
+      <c r="A136" t="s">
+        <v>756</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>173</v>
@@ -4169,9 +5439,8 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>嘉裕  楊炳連</v>
+      <c r="A137" t="s">
+        <v>757</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>177</v>
@@ -4181,9 +5450,8 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>嘉裕  嚴凱泰</v>
+      <c r="A138" t="s">
+        <v>758</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>177</v>
@@ -4193,9 +5461,8 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="str">
-        <f t="shared" si="2"/>
-        <v>嘉裕  嚴陳莉蓮</v>
+      <c r="A139" t="s">
+        <v>759</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>177</v>
@@ -4205,9 +5472,8 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" t="str">
-        <f t="shared" si="2"/>
-        <v>嘉裕  陳伯鏞</v>
+      <c r="A140" t="s">
+        <v>760</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>177</v>
@@ -4217,9 +5483,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="str">
-        <f t="shared" si="2"/>
-        <v>嘉裕  黃得超</v>
+      <c r="A141" t="s">
+        <v>761</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>177</v>
@@ -4229,9 +5494,8 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" t="str">
-        <f t="shared" si="2"/>
-        <v>東華龍  林河輝</v>
+      <c r="A142" t="s">
+        <v>762</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>183</v>
@@ -4241,9 +5505,8 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" t="str">
-        <f t="shared" si="2"/>
-        <v>東華龍  林壯儒</v>
+      <c r="A143" t="s">
+        <v>763</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>183</v>
@@ -4253,9 +5516,8 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" t="str">
-        <f t="shared" si="2"/>
-        <v>新光紡織  吳東昇</v>
+      <c r="A144" t="s">
+        <v>764</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>186</v>
@@ -4265,9 +5527,8 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" t="str">
-        <f t="shared" si="2"/>
-        <v>新光紡織  吳東賢</v>
+      <c r="A145" t="s">
+        <v>765</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>186</v>
@@ -4277,9 +5538,8 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" t="str">
-        <f t="shared" si="2"/>
-        <v>新光紡織  吳欣鴻</v>
+      <c r="A146" t="s">
+        <v>766</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>186</v>
@@ -4289,9 +5549,8 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" t="str">
-        <f t="shared" si="2"/>
-        <v>新光紡織  吳昕恩</v>
+      <c r="A147" t="s">
+        <v>767</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>186</v>
@@ -4301,9 +5560,8 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" t="str">
-        <f t="shared" si="2"/>
-        <v>利華羊毛工業  王敬堂</v>
+      <c r="A148" t="s">
+        <v>768</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>190</v>
@@ -4313,9 +5571,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.5">
-      <c r="A149" t="str">
-        <f t="shared" si="2"/>
-        <v>利華羊毛工業  應柔爾</v>
+      <c r="A149" t="s">
+        <v>769</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>190</v>
@@ -4325,9 +5582,8 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" t="str">
-        <f t="shared" si="2"/>
-        <v>大魯閣實業  王金銷</v>
+      <c r="A150" t="s">
+        <v>770</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>192</v>
@@ -4337,9 +5593,8 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" t="str">
-        <f t="shared" si="2"/>
-        <v>大魯閣實業  林曼麗</v>
+      <c r="A151" t="s">
+        <v>771</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>192</v>
@@ -4349,9 +5604,8 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" t="str">
-        <f t="shared" si="2"/>
-        <v>大魯閣實業  謝修平</v>
+      <c r="A152" t="s">
+        <v>772</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>192</v>
@@ -4365,9 +5619,8 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" t="str">
-        <f t="shared" si="2"/>
-        <v>福懋興業  王文淵</v>
+      <c r="A153" t="s">
+        <v>773</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>196</v>
@@ -4377,9 +5630,8 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" t="str">
-        <f t="shared" si="2"/>
-        <v>中福國際(股)公司 黃立中</v>
+      <c r="A154" t="s">
+        <v>774</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>197</v>
@@ -4389,9 +5641,8 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" t="str">
-        <f t="shared" si="2"/>
-        <v>中福國際(股)公司 陸榮木</v>
+      <c r="A155" t="s">
+        <v>775</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>197</v>
@@ -4401,9 +5652,8 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" t="str">
-        <f t="shared" si="2"/>
-        <v>中福國際(股)公司 陳建</v>
+      <c r="A156" t="s">
+        <v>776</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>197</v>
@@ -4413,9 +5663,8 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" t="str">
-        <f t="shared" si="2"/>
-        <v>華友聯開發  蘇天財</v>
+      <c r="A157" t="s">
+        <v>777</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>201</v>
@@ -4425,9 +5674,8 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" t="str">
-        <f t="shared" si="2"/>
-        <v>華友聯開發  陸炤廷</v>
+      <c r="A158" t="s">
+        <v>778</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>201</v>
@@ -4437,9 +5685,8 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" t="str">
-        <f t="shared" si="2"/>
-        <v>勤益投資控股  顧肇基</v>
+      <c r="A159" t="s">
+        <v>779</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>204</v>
@@ -4449,9 +5696,8 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" t="str">
-        <f t="shared" si="2"/>
-        <v>勤益投資控股  顧立楷</v>
+      <c r="A160" t="s">
+        <v>780</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>204</v>
@@ -4461,9 +5707,8 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" t="str">
-        <f t="shared" si="2"/>
-        <v>三地開發地產  潘俊榮</v>
+      <c r="A161" t="s">
+        <v>781</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>207</v>
@@ -4473,9 +5718,8 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" t="str">
-        <f t="shared" si="2"/>
-        <v>三地開發地產  蔡尚斌</v>
+      <c r="A162" t="s">
+        <v>782</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>207</v>
@@ -4485,9 +5729,8 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" t="str">
-        <f t="shared" si="2"/>
-        <v>三地開發地產  林淑美</v>
+      <c r="A163" t="s">
+        <v>783</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>207</v>
@@ -4497,9 +5740,8 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="str">
-        <f t="shared" si="2"/>
-        <v>三地開發地產  陳季函</v>
+      <c r="A164" t="s">
+        <v>784</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>207</v>
@@ -4509,9 +5751,8 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="str">
-        <f t="shared" si="2"/>
-        <v>三地開發地產  鍾育霖</v>
+      <c r="A165" t="s">
+        <v>785</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>207</v>
@@ -4521,9 +5762,8 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="str">
-        <f t="shared" si="2"/>
-        <v>雋揚國際  陳植英</v>
+      <c r="A166" t="s">
+        <v>786</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>213</v>
@@ -4533,9 +5773,8 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="str">
-        <f t="shared" si="2"/>
-        <v>雋揚國際  侯嘉騏</v>
+      <c r="A167" t="s">
+        <v>787</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>213</v>
@@ -4545,9 +5784,8 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="str">
-        <f t="shared" si="2"/>
-        <v>臺南紡織  育鵬投資股份有限公司</v>
+      <c r="A168" t="s">
+        <v>788</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>216</v>
@@ -4557,9 +5795,8 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="str">
-        <f t="shared" si="2"/>
-        <v>臺南紡織  吳修齊</v>
+      <c r="A169" t="s">
+        <v>789</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>216</v>
@@ -4569,9 +5806,8 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" t="str">
-        <f t="shared" si="2"/>
-        <v>臺南紡織  鄭高輝</v>
+      <c r="A170" t="s">
+        <v>790</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>216</v>
@@ -4581,9 +5817,8 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="str">
-        <f t="shared" si="2"/>
-        <v>臺南紡織  侯博明</v>
+      <c r="A171" t="s">
+        <v>791</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>216</v>
@@ -4593,9 +5828,8 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="str">
-        <f t="shared" si="2"/>
-        <v>大東紡織  陳修忠</v>
+      <c r="A172" t="s">
+        <v>792</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>221</v>
@@ -4605,9 +5839,8 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" t="str">
-        <f t="shared" si="2"/>
-        <v>名軒開發  劉燈發</v>
+      <c r="A173" t="s">
+        <v>793</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>223</v>
@@ -4617,9 +5850,8 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" t="str">
-        <f t="shared" si="2"/>
-        <v>名軒開發  吳泓瑩</v>
+      <c r="A174" t="s">
+        <v>794</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>223</v>
@@ -4629,9 +5861,8 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" t="str">
-        <f t="shared" si="2"/>
-        <v>立益物流開發  蘇東榮</v>
+      <c r="A175" t="s">
+        <v>795</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>226</v>
@@ -4641,9 +5872,8 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" t="str">
-        <f t="shared" si="2"/>
-        <v>力麗企業  郭紹儀</v>
+      <c r="A176" t="s">
+        <v>796</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>228</v>
@@ -4653,9 +5883,8 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" t="str">
-        <f t="shared" si="2"/>
-        <v>大宇紡織  張煜生</v>
+      <c r="A177" t="s">
+        <v>797</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>230</v>
@@ -4665,9 +5894,8 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" t="str">
-        <f t="shared" si="2"/>
-        <v>大宇紡織  陳曜銘</v>
+      <c r="A178" t="s">
+        <v>798</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>230</v>
@@ -4677,9 +5905,8 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="str">
-        <f t="shared" si="2"/>
-        <v>宏和精密紡織  黃大功</v>
+      <c r="A179" t="s">
+        <v>799</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>233</v>
@@ -4689,9 +5916,8 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" t="str">
-        <f t="shared" si="2"/>
-        <v>力鵬企業  郭紹儀</v>
+      <c r="A180" t="s">
+        <v>800</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>235</v>
@@ -4701,9 +5927,8 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" t="str">
-        <f t="shared" si="2"/>
-        <v>佳和實業  翁川配</v>
+      <c r="A181" t="s">
+        <v>801</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>236</v>
@@ -4713,9 +5938,8 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" t="str">
-        <f t="shared" si="2"/>
-        <v>佳和實業  翁茂鍾</v>
+      <c r="A182" t="s">
+        <v>802</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>236</v>
@@ -4725,9 +5949,8 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" t="str">
-        <f t="shared" si="2"/>
-        <v>佳和實業  翁茂欽</v>
+      <c r="A183" t="s">
+        <v>803</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>236</v>
@@ -4737,9 +5960,8 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="str">
-        <f t="shared" si="2"/>
-        <v>佳和實業  翁偉翔</v>
+      <c r="A184" t="s">
+        <v>804</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>236</v>
@@ -4749,9 +5971,8 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="str">
-        <f t="shared" si="2"/>
-        <v>年興紡織  陳榮秋</v>
+      <c r="A185" t="s">
+        <v>805</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>241</v>
@@ -4761,9 +5982,8 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" t="str">
-        <f t="shared" si="2"/>
-        <v>年興紡織  陳宜鋒</v>
+      <c r="A186" t="s">
+        <v>806</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>241</v>
@@ -4773,9 +5993,8 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="str">
-        <f t="shared" si="2"/>
-        <v>年興紡織  蔡樹軒</v>
+      <c r="A187" t="s">
+        <v>807</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>241</v>
@@ -4785,9 +6004,8 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="str">
-        <f t="shared" si="2"/>
-        <v>年興紡織  陳朝國</v>
+      <c r="A188" t="s">
+        <v>808</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>241</v>
@@ -4797,9 +6015,8 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" t="str">
-        <f t="shared" si="2"/>
-        <v>年興紡織  陳威翰</v>
+      <c r="A189" t="s">
+        <v>809</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>241</v>
@@ -4809,9 +6026,8 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" t="str">
-        <f t="shared" si="2"/>
-        <v>宏益纖維工業  施振榮</v>
+      <c r="A190" t="s">
+        <v>810</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>247</v>
@@ -4821,9 +6037,8 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" t="str">
-        <f t="shared" si="2"/>
-        <v>宏益纖維工業  施淑賢</v>
+      <c r="A191" t="s">
+        <v>811</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>247</v>
@@ -4833,9 +6048,8 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" t="str">
-        <f t="shared" si="2"/>
-        <v>大將開發  葉義雄</v>
+      <c r="A192" t="s">
+        <v>812</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>250</v>
@@ -4845,9 +6059,8 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" t="str">
-        <f t="shared" si="2"/>
-        <v>台灣富綢纖維  洪老典</v>
+      <c r="A193" t="s">
+        <v>813</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>252</v>
@@ -4857,9 +6070,8 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" t="str">
-        <f t="shared" si="2"/>
-        <v>台灣富綢纖維  張煜生</v>
+      <c r="A194" t="s">
+        <v>814</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>252</v>
@@ -4869,9 +6081,8 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" t="str">
-        <f t="shared" ref="A195:A258" si="3">_xlfn.CONCAT(B195," ",C195)</f>
-        <v>集盛實業  葉守焞</v>
+      <c r="A195" t="s">
+        <v>815</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>254</v>
@@ -4881,9 +6092,8 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" t="str">
-        <f t="shared" si="3"/>
-        <v>怡華實業  翁茂鍾</v>
+      <c r="A196" t="s">
+        <v>816</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>256</v>
@@ -4893,9 +6103,8 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" t="str">
-        <f t="shared" si="3"/>
-        <v>怡華實業  黃士豪</v>
+      <c r="A197" t="s">
+        <v>817</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>256</v>
@@ -4905,9 +6114,8 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" t="str">
-        <f t="shared" si="3"/>
-        <v>宜進實業  詹正田</v>
+      <c r="A198" t="s">
+        <v>818</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>258</v>
@@ -4917,9 +6125,8 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="str">
-        <f t="shared" si="3"/>
-        <v>聯發紡織纖維  葉清澤</v>
+      <c r="A199" t="s">
+        <v>819</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>259</v>
@@ -4929,9 +6136,8 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="str">
-        <f t="shared" si="3"/>
-        <v>宏遠興業  席家宜</v>
+      <c r="A200" t="s">
+        <v>820</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>261</v>
@@ -4941,9 +6147,8 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="str">
-        <f t="shared" si="3"/>
-        <v>強盛新  陳壬發</v>
+      <c r="A201" t="s">
+        <v>821</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>263</v>
@@ -4953,9 +6158,8 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="str">
-        <f t="shared" si="3"/>
-        <v>得力實業  葉福林</v>
+      <c r="A202" t="s">
+        <v>822</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>265</v>
@@ -4965,9 +6169,8 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" t="str">
-        <f t="shared" si="3"/>
-        <v>得力實業  葉家銘</v>
+      <c r="A203" t="s">
+        <v>823</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>265</v>
@@ -4977,9 +6180,8 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="str">
-        <f t="shared" si="3"/>
-        <v>偉全實業  謝仲敏</v>
+      <c r="A204" t="s">
+        <v>824</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>268</v>
@@ -4989,9 +6191,8 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="str">
-        <f t="shared" si="3"/>
-        <v>偉全實業  陳建柱</v>
+      <c r="A205" t="s">
+        <v>825</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>268</v>
@@ -5001,9 +6202,8 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" t="str">
-        <f t="shared" si="3"/>
-        <v>聚隆纖維  陳秀卿</v>
+      <c r="A206" t="s">
+        <v>826</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>271</v>
@@ -5013,9 +6213,8 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" t="str">
-        <f t="shared" si="3"/>
-        <v>聚隆纖維  周文東</v>
+      <c r="A207" t="s">
+        <v>827</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>271</v>
@@ -5025,9 +6224,8 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" t="str">
-        <f t="shared" si="3"/>
-        <v>南緯實業  林瑞岳</v>
+      <c r="A208" t="s">
+        <v>828</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>274</v>
@@ -5037,9 +6235,8 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" t="str">
-        <f t="shared" si="3"/>
-        <v>昶和纖維興業  陳明澤</v>
+      <c r="A209" t="s">
+        <v>829</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>276</v>
@@ -5049,9 +6246,8 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" t="str">
-        <f t="shared" si="3"/>
-        <v>大統新創  葉泉發</v>
+      <c r="A210" t="s">
+        <v>830</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>278</v>
@@ -5061,9 +6257,8 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="str">
-        <f t="shared" si="3"/>
-        <v>首利實業  郭紹儀</v>
+      <c r="A211" t="s">
+        <v>831</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>280</v>
@@ -5073,9 +6268,8 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="str">
-        <f t="shared" si="3"/>
-        <v>首利實業  鄭傑</v>
+      <c r="A212" t="s">
+        <v>832</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>280</v>
@@ -5085,9 +6279,8 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  鴻鋌企業股份有限公司</v>
+      <c r="A213" t="s">
+        <v>833</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>282</v>
@@ -5097,9 +6290,8 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  大員尚青股份有限公司</v>
+      <c r="A214" t="s">
+        <v>834</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>282</v>
@@ -5109,9 +6301,8 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  黃水生</v>
+      <c r="A215" t="s">
+        <v>835</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>282</v>
@@ -5121,9 +6312,8 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  黃金宗</v>
+      <c r="A216" t="s">
+        <v>836</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>282</v>
@@ -5133,9 +6323,8 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  黃俊銘</v>
+      <c r="A217" t="s">
+        <v>837</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>282</v>
@@ -5145,9 +6334,8 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  陳和順</v>
+      <c r="A218" t="s">
+        <v>838</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>282</v>
@@ -5157,9 +6345,8 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  陳(啟)昱</v>
+      <c r="A219" t="s">
+        <v>839</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>282</v>
@@ -5169,9 +6356,8 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="str">
-        <f t="shared" si="3"/>
-        <v>三洋實業  蔣玉蓮</v>
+      <c r="A220" t="s">
+        <v>840</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>282</v>
@@ -5181,9 +6367,8 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="str">
-        <f t="shared" si="3"/>
-        <v>台南企業  楊崑茂</v>
+      <c r="A221" t="s">
+        <v>841</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>291</v>
@@ -5193,9 +6378,8 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="str">
-        <f t="shared" si="3"/>
-        <v>台南企業  楊青峯</v>
+      <c r="A222" t="s">
+        <v>842</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>291</v>
@@ -5205,9 +6389,8 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" t="str">
-        <f t="shared" si="3"/>
-        <v>弘裕企業  葉明裕</v>
+      <c r="A223" t="s">
+        <v>843</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>294</v>
@@ -5217,9 +6400,8 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" t="str">
-        <f t="shared" si="3"/>
-        <v>弘裕企業  葉明洲</v>
+      <c r="A224" t="s">
+        <v>844</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>294</v>
@@ -5229,9 +6411,8 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" t="str">
-        <f t="shared" si="3"/>
-        <v>弘裕企業  葉博宇</v>
+      <c r="A225" t="s">
+        <v>845</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>294</v>
@@ -5241,9 +6422,8 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" t="str">
-        <f t="shared" si="3"/>
-        <v>台灣業旺  翁明顯</v>
+      <c r="A226" t="s">
+        <v>846</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>298</v>
@@ -5253,9 +6433,8 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" t="str">
-        <f t="shared" si="3"/>
-        <v>台灣業旺  柯文彬</v>
+      <c r="A227" t="s">
+        <v>847</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>298</v>
@@ -5265,9 +6444,8 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" t="str">
-        <f t="shared" si="3"/>
-        <v>台灣業旺  郭俊惠</v>
+      <c r="A228" t="s">
+        <v>848</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>298</v>
@@ -5277,9 +6455,8 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" t="str">
-        <f t="shared" si="3"/>
-        <v>台灣業旺  陳清土</v>
+      <c r="A229" t="s">
+        <v>849</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>298</v>
@@ -5289,9 +6466,8 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" t="str">
-        <f t="shared" si="3"/>
-        <v>儒鴻企業  洪鎮海</v>
+      <c r="A230" t="s">
+        <v>850</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>303</v>
@@ -5301,9 +6477,8 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="str">
-        <f t="shared" si="3"/>
-        <v>儒鴻企業  王樹文</v>
+      <c r="A231" t="s">
+        <v>851</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>303</v>
@@ -5313,9 +6488,8 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="str">
-        <f t="shared" si="3"/>
-        <v>聚陽實業  周理平</v>
+      <c r="A232" t="s">
+        <v>852</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>306</v>
@@ -5325,9 +6499,8 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="str">
-        <f t="shared" si="3"/>
-        <v>士林電機廠  許育瑞</v>
+      <c r="A233" t="s">
+        <v>853</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>309</v>
@@ -5337,9 +6510,8 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="str">
-        <f t="shared" si="3"/>
-        <v>東元電機  黃茂雄</v>
+      <c r="A234" t="s">
+        <v>854</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>311</v>
@@ -5349,9 +6521,8 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" t="str">
-        <f t="shared" si="3"/>
-        <v>東元電機  劉兆凱</v>
+      <c r="A235" t="s">
+        <v>855</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>311</v>
@@ -5361,9 +6532,8 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" t="str">
-        <f t="shared" si="3"/>
-        <v>東元電機  邱純枝</v>
+      <c r="A236" t="s">
+        <v>856</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>311</v>
@@ -5373,9 +6543,8 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" t="str">
-        <f t="shared" si="3"/>
-        <v>東元電機  利明献</v>
+      <c r="A237" t="s">
+        <v>857</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>311</v>
@@ -5385,9 +6554,8 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" t="str">
-        <f t="shared" si="3"/>
-        <v>正道工業  陳國雄</v>
+      <c r="A238" t="s">
+        <v>858</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>316</v>
@@ -5397,9 +6565,8 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" t="str">
-        <f t="shared" si="3"/>
-        <v>正道工業  盧明光</v>
+      <c r="A239" t="s">
+        <v>859</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>316</v>
@@ -5409,9 +6576,8 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="str">
-        <f t="shared" si="3"/>
-        <v>正道工業  郭建廷</v>
+      <c r="A240" t="s">
+        <v>860</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>316</v>
@@ -5421,9 +6587,8 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" t="str">
-        <f t="shared" si="3"/>
-        <v>正道工業  謝麗雲</v>
+      <c r="A241" t="s">
+        <v>861</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>316</v>
@@ -5433,9 +6598,8 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" t="str">
-        <f t="shared" si="3"/>
-        <v>瑞利企業  呂瑞晃</v>
+      <c r="A242" t="s">
+        <v>862</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>321</v>
@@ -5445,9 +6609,8 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" t="str">
-        <f t="shared" si="3"/>
-        <v>瑞利企業  吳政哲</v>
+      <c r="A243" t="s">
+        <v>863</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>321</v>
@@ -5457,9 +6620,8 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" t="str">
-        <f t="shared" si="3"/>
-        <v>瑞利企業  吳明燦</v>
+      <c r="A244" t="s">
+        <v>864</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>321</v>
@@ -5469,9 +6631,8 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" t="str">
-        <f t="shared" si="3"/>
-        <v>中興電工機械  江義福</v>
+      <c r="A245" t="s">
+        <v>865</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>325</v>
@@ -5481,9 +6642,8 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" t="str">
-        <f t="shared" si="3"/>
-        <v>中興電工機械  江馥年</v>
+      <c r="A246" t="s">
+        <v>866</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>325</v>
@@ -5493,9 +6653,8 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" t="str">
-        <f t="shared" si="3"/>
-        <v>亞力電機  宋振緒</v>
+      <c r="A247" t="s">
+        <v>867</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>328</v>
@@ -5505,9 +6664,8 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" t="str">
-        <f t="shared" si="3"/>
-        <v>亞力電機  李文續</v>
+      <c r="A248" t="s">
+        <v>868</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>328</v>
@@ -5517,9 +6675,8 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" t="str">
-        <f t="shared" si="3"/>
-        <v>亞力電機  宋和業</v>
+      <c r="A249" t="s">
+        <v>869</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>328</v>
@@ -5529,9 +6686,8 @@
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" t="str">
-        <f t="shared" si="3"/>
-        <v>力山工業  王坤復</v>
+      <c r="A250" t="s">
+        <v>870</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>332</v>
@@ -5541,9 +6697,8 @@
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" t="str">
-        <f t="shared" si="3"/>
-        <v>力山工業  王冠祥</v>
+      <c r="A251" t="s">
+        <v>871</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>332</v>
@@ -5553,9 +6708,8 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  張德輝</v>
+      <c r="A252" t="s">
+        <v>872</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>335</v>
@@ -5565,9 +6719,8 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  張維岳</v>
+      <c r="A253" t="s">
+        <v>873</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>335</v>
@@ -5577,9 +6730,8 @@
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  張慶昌</v>
+      <c r="A254" t="s">
+        <v>874</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>335</v>
@@ -5589,9 +6741,8 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  林慧明</v>
+      <c r="A255" t="s">
+        <v>875</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>335</v>
@@ -5601,9 +6752,8 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  謝秀娟</v>
+      <c r="A256" t="s">
+        <v>876</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>335</v>
@@ -5613,9 +6763,8 @@
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  樓建僑</v>
+      <c r="A257" t="s">
+        <v>877</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>335</v>
@@ -5625,9 +6774,8 @@
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" t="str">
-        <f t="shared" si="3"/>
-        <v>川飛能源  謝縈俞</v>
+      <c r="A258" t="s">
+        <v>878</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>335</v>
@@ -5637,9 +6785,8 @@
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" t="str">
-        <f t="shared" ref="A259:A322" si="4">_xlfn.CONCAT(B259," ",C259)</f>
-        <v>利奇機械工業  林阿平</v>
+      <c r="A259" t="s">
+        <v>879</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>343</v>
@@ -5649,9 +6796,8 @@
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" t="str">
-        <f t="shared" si="4"/>
-        <v>利奇機械工業  林育新</v>
+      <c r="A260" t="s">
+        <v>880</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>343</v>
@@ -5661,9 +6807,8 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" t="str">
-        <f t="shared" si="4"/>
-        <v>華城電機  許忠明</v>
+      <c r="A261" t="s">
+        <v>881</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>346</v>
@@ -5673,9 +6818,8 @@
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" t="str">
-        <f t="shared" si="4"/>
-        <v>華城電機  許邦福</v>
+      <c r="A262" t="s">
+        <v>882</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>346</v>
@@ -5685,9 +6829,8 @@
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" t="str">
-        <f t="shared" si="4"/>
-        <v>大億交通工業製造  吳俊億</v>
+      <c r="A263" t="s">
+        <v>883</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>349</v>
@@ -5697,9 +6840,8 @@
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" t="str">
-        <f t="shared" si="4"/>
-        <v>堤維西交通工業  吳俊佶</v>
+      <c r="A264" t="s">
+        <v>884</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>351</v>
@@ -5709,9 +6851,8 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" t="str">
-        <f t="shared" si="4"/>
-        <v>堤維西交通工業  吳國禎</v>
+      <c r="A265" t="s">
+        <v>885</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>351</v>
@@ -5721,9 +6862,8 @@
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" t="str">
-        <f t="shared" si="4"/>
-        <v>耿鼎企業  李茂源</v>
+      <c r="A266" t="s">
+        <v>886</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>354</v>
@@ -5733,9 +6873,8 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" t="str">
-        <f t="shared" si="4"/>
-        <v>江申工業  張覺民</v>
+      <c r="A267" t="s">
+        <v>887</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>356</v>
@@ -5745,9 +6884,8 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" t="str">
-        <f t="shared" si="4"/>
-        <v>江申工業  陳世全</v>
+      <c r="A268" t="s">
+        <v>888</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>356</v>
@@ -5757,9 +6895,8 @@
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" t="str">
-        <f t="shared" si="4"/>
-        <v>江申工業  簡清隆</v>
+      <c r="A269" t="s">
+        <v>889</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>356</v>
@@ -5769,9 +6906,8 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" t="str">
-        <f t="shared" si="4"/>
-        <v>江申工業  陳昭文</v>
+      <c r="A270" t="s">
+        <v>890</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>356</v>
@@ -5781,9 +6917,8 @@
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" t="str">
-        <f t="shared" si="4"/>
-        <v>日馳企業  徐義雄</v>
+      <c r="A271" t="s">
+        <v>891</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>361</v>
@@ -5793,9 +6928,8 @@
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" t="str">
-        <f t="shared" si="4"/>
-        <v>日馳企業   林慧瑛</v>
+      <c r="A272" t="s">
+        <v>1088</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>361</v>
@@ -5805,9 +6939,8 @@
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" t="str">
-        <f t="shared" si="4"/>
-        <v>鑽全實業  賴明達</v>
+      <c r="A273" t="s">
+        <v>892</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>364</v>
@@ -5817,9 +6950,8 @@
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" t="str">
-        <f t="shared" si="4"/>
-        <v>鑽全實業  賴伯彥</v>
+      <c r="A274" t="s">
+        <v>893</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>364</v>
@@ -5829,9 +6961,8 @@
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" t="str">
-        <f t="shared" si="4"/>
-        <v>恩德科技  謝子仁</v>
+      <c r="A275" t="s">
+        <v>894</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>367</v>
@@ -5841,9 +6972,8 @@
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" t="str">
-        <f t="shared" si="4"/>
-        <v>恩德科技  廖文嘉</v>
+      <c r="A276" t="s">
+        <v>895</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>367</v>
@@ -5853,9 +6983,8 @@
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" t="str">
-        <f t="shared" si="4"/>
-        <v>樂事綠能科技  樂祺投資有限公司</v>
+      <c r="A277" t="s">
+        <v>896</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>370</v>
@@ -5865,9 +6994,8 @@
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" t="str">
-        <f t="shared" si="4"/>
-        <v>樂事綠能科技  葉森雄</v>
+      <c r="A278" t="s">
+        <v>897</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>370</v>
@@ -5877,9 +7005,8 @@
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" t="str">
-        <f t="shared" si="4"/>
-        <v>樂事綠能科技  林榮照</v>
+      <c r="A279" t="s">
+        <v>898</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>370</v>
@@ -5889,9 +7016,8 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" t="str">
-        <f t="shared" si="4"/>
-        <v>樂事綠能科技  陳龍發</v>
+      <c r="A280" t="s">
+        <v>899</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>370</v>
@@ -5901,9 +7027,8 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" t="str">
-        <f t="shared" si="4"/>
-        <v>樂事綠能科技  陳介仁</v>
+      <c r="A281" t="s">
+        <v>900</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>370</v>
@@ -5913,9 +7038,8 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" t="str">
-        <f t="shared" si="4"/>
-        <v>亞崴機電  楊德華</v>
+      <c r="A282" t="s">
+        <v>901</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>376</v>
@@ -5925,9 +7049,8 @@
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" t="str">
-        <f t="shared" si="4"/>
-        <v>高林股 林郁文</v>
+      <c r="A283" t="s">
+        <v>902</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>378</v>
@@ -5937,9 +7060,8 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" t="str">
-        <f t="shared" si="4"/>
-        <v>高林股 林陳雅子</v>
+      <c r="A284" t="s">
+        <v>903</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>378</v>
@@ -5949,9 +7071,8 @@
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" t="str">
-        <f t="shared" si="4"/>
-        <v>勤美  何明憲</v>
+      <c r="A285" t="s">
+        <v>904</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>381</v>
@@ -5961,9 +7082,8 @@
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" t="str">
-        <f t="shared" si="4"/>
-        <v>勤美  林廷芳</v>
+      <c r="A286" t="s">
+        <v>905</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>381</v>
@@ -5973,9 +7093,8 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" t="str">
-        <f t="shared" si="4"/>
-        <v>車王電子  蔡裕慶</v>
+      <c r="A287" t="s">
+        <v>906</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>384</v>
@@ -5985,9 +7104,8 @@
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  杜金陵</v>
+      <c r="A288" t="s">
+        <v>907</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>386</v>
@@ -5997,9 +7115,8 @@
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  李慶超</v>
+      <c r="A289" t="s">
+        <v>908</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>386</v>
@@ -6009,9 +7126,8 @@
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  林弘男</v>
+      <c r="A290" t="s">
+        <v>909</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>386</v>
@@ -6021,9 +7137,8 @@
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  翁朝棟</v>
+      <c r="A291" t="s">
+        <v>910</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>386</v>
@@ -6033,9 +7148,8 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  陳宗德</v>
+      <c r="A292" t="s">
+        <v>911</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>386</v>
@@ -6045,9 +7159,8 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  陳震江</v>
+      <c r="A293" t="s">
+        <v>912</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>386</v>
@@ -6057,9 +7170,8 @@
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" t="str">
-        <f t="shared" si="4"/>
-        <v>中宇環保工程  謝英斌</v>
+      <c r="A294" t="s">
+        <v>913</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>386</v>
@@ -6069,9 +7181,8 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" t="str">
-        <f t="shared" si="4"/>
-        <v>和大工業  林炎輝</v>
+      <c r="A295" t="s">
+        <v>914</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>394</v>
@@ -6081,9 +7192,8 @@
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" t="str">
-        <f t="shared" si="4"/>
-        <v>和大工業  沈國榮</v>
+      <c r="A296" t="s">
+        <v>915</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>394</v>
@@ -6093,9 +7203,8 @@
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" t="str">
-        <f t="shared" si="4"/>
-        <v>廣隆光電科技  李耀銘</v>
+      <c r="A297" t="s">
+        <v>916</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>397</v>
@@ -6105,9 +7214,8 @@
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" t="str">
-        <f t="shared" si="4"/>
-        <v>廣隆光電科技  李瑞勳</v>
+      <c r="A298" t="s">
+        <v>917</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>397</v>
@@ -6117,9 +7225,8 @@
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" t="str">
-        <f t="shared" si="4"/>
-        <v>正峰工業  鐘明甫</v>
+      <c r="A299" t="s">
+        <v>918</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>400</v>
@@ -6129,9 +7236,8 @@
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" t="str">
-        <f t="shared" si="4"/>
-        <v>正峰工業  鍾榮昌</v>
+      <c r="A300" t="s">
+        <v>919</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>400</v>
@@ -6141,9 +7247,8 @@
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" t="str">
-        <f t="shared" si="4"/>
-        <v>正峰工業  李育成</v>
+      <c r="A301" t="s">
+        <v>920</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>400</v>
@@ -6153,9 +7258,8 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" t="str">
-        <f t="shared" si="4"/>
-        <v>正峰工業  陳碩璨</v>
+      <c r="A302" t="s">
+        <v>921</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>400</v>
@@ -6165,9 +7269,8 @@
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" t="str">
-        <f t="shared" si="4"/>
-        <v>正峰工業  陳永倫</v>
+      <c r="A303" t="s">
+        <v>922</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>400</v>
@@ -6177,9 +7280,8 @@
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" t="str">
-        <f t="shared" si="4"/>
-        <v>巨庭機械  莊博彥</v>
+      <c r="A304" t="s">
+        <v>923</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>406</v>
@@ -6189,9 +7291,8 @@
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" t="str">
-        <f t="shared" si="4"/>
-        <v>喬福機械工業  林聖明</v>
+      <c r="A305" t="s">
+        <v>924</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>408</v>
@@ -6201,9 +7302,8 @@
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" t="str">
-        <f t="shared" si="4"/>
-        <v>錩泰工業  張經金</v>
+      <c r="A306" t="s">
+        <v>925</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>410</v>
@@ -6213,9 +7313,8 @@
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" t="str">
-        <f t="shared" si="4"/>
-        <v>伸興工業  林志誠</v>
+      <c r="A307" t="s">
+        <v>926</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>412</v>
@@ -6225,9 +7324,8 @@
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" t="str">
-        <f t="shared" si="4"/>
-        <v>中國砂輪企業  白永傳</v>
+      <c r="A308" t="s">
+        <v>927</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>414</v>
@@ -6237,9 +7335,8 @@
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" t="str">
-        <f t="shared" si="4"/>
-        <v>中國砂輪企業  白陽亮</v>
+      <c r="A309" t="s">
+        <v>928</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>414</v>
@@ -6249,9 +7346,8 @@
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" t="str">
-        <f t="shared" si="4"/>
-        <v>中國砂輪企業  林陳滿麗</v>
+      <c r="A310" t="s">
+        <v>929</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>414</v>
@@ -6261,9 +7357,8 @@
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" t="str">
-        <f t="shared" si="4"/>
-        <v>中國砂輪企業  林伯全</v>
+      <c r="A311" t="s">
+        <v>930</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>414</v>
@@ -6273,9 +7368,8 @@
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" t="str">
-        <f t="shared" si="4"/>
-        <v>巧新科技工業  楊潮鈺</v>
+      <c r="A312" t="s">
+        <v>931</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>419</v>
@@ -6285,9 +7379,8 @@
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" t="str">
-        <f t="shared" si="4"/>
-        <v>巧新科技工業  石呈澤</v>
+      <c r="A313" t="s">
+        <v>932</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>419</v>
@@ -6297,9 +7390,8 @@
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" t="str">
-        <f t="shared" si="4"/>
-        <v>巧新科技工業  吳宗仁</v>
+      <c r="A314" t="s">
+        <v>933</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>419</v>
@@ -6309,9 +7401,8 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" t="str">
-        <f t="shared" si="4"/>
-        <v>巧新科技工業  黃聰榮</v>
+      <c r="A315" t="s">
+        <v>934</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>419</v>
@@ -6321,9 +7412,8 @@
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" t="str">
-        <f t="shared" si="4"/>
-        <v>倉佑實業  鄧惠哲</v>
+      <c r="A316" t="s">
+        <v>935</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>424</v>
@@ -6333,9 +7423,8 @@
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" t="str">
-        <f t="shared" si="4"/>
-        <v>倉佑實業  蘇祈澤</v>
+      <c r="A317" t="s">
+        <v>936</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>424</v>
@@ -6345,9 +7434,8 @@
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" t="str">
-        <f t="shared" si="4"/>
-        <v>信錦企業  陳秋郎</v>
+      <c r="A318" t="s">
+        <v>937</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>427</v>
@@ -6357,9 +7445,8 @@
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" t="str">
-        <f t="shared" si="4"/>
-        <v>程泰機械  楊德華</v>
+      <c r="A319" t="s">
+        <v>938</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>429</v>
@@ -6369,9 +7456,8 @@
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" t="str">
-        <f t="shared" si="4"/>
-        <v>吉茂精密  劉彥狄</v>
+      <c r="A320" t="s">
+        <v>939</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>430</v>
@@ -6381,9 +7467,8 @@
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" t="str">
-        <f t="shared" si="4"/>
-        <v>直得科技  陳麗芬</v>
+      <c r="A321" t="s">
+        <v>940</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>432</v>
@@ -6393,9 +7478,8 @@
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" t="str">
-        <f t="shared" si="4"/>
-        <v>岱宇國際  林英俊</v>
+      <c r="A322" t="s">
+        <v>941</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>434</v>
@@ -6405,9 +7489,8 @@
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" t="str">
-        <f t="shared" ref="A323:A386" si="5">_xlfn.CONCAT(B323," ",C323)</f>
-        <v>岱宇國際  林佑穎</v>
+      <c r="A323" t="s">
+        <v>942</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>434</v>
@@ -6417,9 +7500,8 @@
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" t="str">
-        <f t="shared" si="5"/>
-        <v>中華電線電纜  陳金鋑</v>
+      <c r="A324" t="s">
+        <v>943</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>437</v>
@@ -6429,9 +7511,8 @@
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" t="str">
-        <f t="shared" si="5"/>
-        <v>中華電線電纜  陳昭蓉</v>
+      <c r="A325" t="s">
+        <v>944</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>437</v>
@@ -6441,9 +7522,8 @@
       </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" t="str">
-        <f t="shared" si="5"/>
-        <v>中華電線電纜  陳亮吟</v>
+      <c r="A326" t="s">
+        <v>945</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>437</v>
@@ -6453,9 +7533,8 @@
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" t="str">
-        <f t="shared" si="5"/>
-        <v>聲寶  陳茂榜</v>
+      <c r="A327" t="s">
+        <v>946</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>441</v>
@@ -6465,9 +7544,8 @@
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" t="str">
-        <f t="shared" si="5"/>
-        <v>聲寶  范正夫</v>
+      <c r="A328" t="s">
+        <v>947</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>441</v>
@@ -6477,9 +7555,8 @@
       </c>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" t="str">
-        <f t="shared" si="5"/>
-        <v>聲寶  財團法人陳茂榜工商發展基金會</v>
+      <c r="A329" t="s">
+        <v>948</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>441</v>
@@ -6489,9 +7566,8 @@
       </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" t="str">
-        <f t="shared" si="5"/>
-        <v>聲寶  陳盛沺</v>
+      <c r="A330" t="s">
+        <v>949</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>441</v>
@@ -6501,9 +7577,8 @@
       </c>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" t="str">
-        <f t="shared" si="5"/>
-        <v>華新麗華  焦佑倫</v>
+      <c r="A331" t="s">
+        <v>950</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>446</v>
@@ -6513,9 +7588,8 @@
       </c>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  王玉珍</v>
+      <c r="A332" t="s">
+        <v>951</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>448</v>
@@ -6525,9 +7599,8 @@
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  胡佑國</v>
+      <c r="A333" t="s">
+        <v>952</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>448</v>
@@ -6537,9 +7610,8 @@
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  吳賢明</v>
+      <c r="A334" t="s">
+        <v>953</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>448</v>
@@ -6549,9 +7621,8 @@
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  王宏銘</v>
+      <c r="A335" t="s">
+        <v>954</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>448</v>
@@ -6561,9 +7632,8 @@
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  劉宗仁</v>
+      <c r="A336" t="s">
+        <v>955</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>448</v>
@@ -6573,9 +7643,8 @@
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" t="str">
-        <f t="shared" si="5"/>
-        <v>華榮電線電纜  王宏仁</v>
+      <c r="A337" t="s">
+        <v>956</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>448</v>
@@ -6585,9 +7654,8 @@
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" t="str">
-        <f t="shared" si="5"/>
-        <v>大亞電線電纜  沈金承</v>
+      <c r="A338" t="s">
+        <v>957</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>455</v>
@@ -6597,9 +7665,8 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" t="str">
-        <f t="shared" si="5"/>
-        <v>大亞電線電纜  沈尚弘</v>
+      <c r="A339" t="s">
+        <v>958</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>455</v>
@@ -6609,9 +7676,8 @@
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  顏甘霖</v>
+      <c r="A340" t="s">
+        <v>959</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>458</v>
@@ -6621,9 +7687,8 @@
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  廖伯熙</v>
+      <c r="A341" t="s">
+        <v>960</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>458</v>
@@ -6633,9 +7698,8 @@
       </c>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  周麗真</v>
+      <c r="A342" t="s">
+        <v>961</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>458</v>
@@ -6645,9 +7709,8 @@
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  蕭宏宜</v>
+      <c r="A343" t="s">
+        <v>962</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>458</v>
@@ -6657,9 +7720,8 @@
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  劉建志</v>
+      <c r="A344" t="s">
+        <v>963</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>458</v>
@@ -6669,9 +7731,8 @@
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" t="str">
-        <f t="shared" si="5"/>
-        <v>中國電器  廖銘輝</v>
+      <c r="A345" t="s">
+        <v>964</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>458</v>
@@ -6681,9 +7742,8 @@
       </c>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" t="str">
-        <f t="shared" si="5"/>
-        <v>宏泰電工  陳志鵬</v>
+      <c r="A346" t="s">
+        <v>965</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>465</v>
@@ -6693,9 +7753,8 @@
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" t="str">
-        <f t="shared" si="5"/>
-        <v>宏泰電工  潘武雄</v>
+      <c r="A347" t="s">
+        <v>966</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>465</v>
@@ -6705,9 +7764,8 @@
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" t="str">
-        <f t="shared" si="5"/>
-        <v>宏泰電工  陳世怡</v>
+      <c r="A348" t="s">
+        <v>967</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>465</v>
@@ -6717,9 +7775,8 @@
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" t="str">
-        <f t="shared" si="5"/>
-        <v>宏泰電工  久疆投資股份有限公司</v>
+      <c r="A349" t="s">
+        <v>968</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>465</v>
@@ -6729,9 +7786,8 @@
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" t="str">
-        <f t="shared" si="5"/>
-        <v>台灣三洋電機  李文峰</v>
+      <c r="A350" t="s">
+        <v>969</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>470</v>
@@ -6741,9 +7797,8 @@
       </c>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" t="str">
-        <f t="shared" si="5"/>
-        <v>大山電線電纜  蘇文彬</v>
+      <c r="A351" t="s">
+        <v>970</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>472</v>
@@ -6753,9 +7808,8 @@
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" t="str">
-        <f t="shared" si="5"/>
-        <v>億泰電線電纜  張明泉</v>
+      <c r="A352" t="s">
+        <v>971</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>474</v>
@@ -6765,9 +7819,8 @@
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" t="str">
-        <f t="shared" si="5"/>
-        <v>億泰電線電纜  王銀河</v>
+      <c r="A353" t="s">
+        <v>972</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>474</v>
@@ -6777,9 +7830,8 @@
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" t="str">
-        <f t="shared" si="5"/>
-        <v>榮星電線工業  王東憲</v>
+      <c r="A354" t="s">
+        <v>973</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>477</v>
@@ -6789,9 +7841,8 @@
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" t="str">
-        <f t="shared" si="5"/>
-        <v>榮星電線工業  王東澤</v>
+      <c r="A355" t="s">
+        <v>974</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>477</v>
@@ -6801,9 +7852,8 @@
       </c>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" t="str">
-        <f t="shared" si="5"/>
-        <v>合機電線電纜  楊愷悌</v>
+      <c r="A356" t="s">
+        <v>975</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>480</v>
@@ -6813,9 +7863,8 @@
       </c>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" t="str">
-        <f t="shared" si="5"/>
-        <v>合機電線電纜  楊碧綺</v>
+      <c r="A357" t="s">
+        <v>976</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>480</v>
@@ -6825,9 +7874,8 @@
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" t="str">
-        <f t="shared" si="5"/>
-        <v>中國化學製藥  王勳聖</v>
+      <c r="A358" t="s">
+        <v>977</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>483</v>
@@ -6837,9 +7885,8 @@
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" t="str">
-        <f t="shared" si="5"/>
-        <v>中國化學製藥  王謝怡貞</v>
+      <c r="A359" t="s">
+        <v>978</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>483</v>
@@ -6849,9 +7896,8 @@
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" t="str">
-        <f t="shared" si="5"/>
-        <v>南僑投資控股  陳飛龍</v>
+      <c r="A360" t="s">
+        <v>979</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>486</v>
@@ -6861,9 +7907,8 @@
       </c>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" t="str">
-        <f t="shared" si="5"/>
-        <v>葡萄王生技  曾水照</v>
+      <c r="A361" t="s">
+        <v>980</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>488</v>
@@ -6873,9 +7918,8 @@
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" t="str">
-        <f t="shared" si="5"/>
-        <v>葡萄王生技  曾盛麟</v>
+      <c r="A362" t="s">
+        <v>981</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>488</v>
@@ -6885,9 +7929,8 @@
       </c>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" t="str">
-        <f t="shared" si="5"/>
-        <v>東南實業  趙天星</v>
+      <c r="A363" t="s">
+        <v>982</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>491</v>
@@ -6897,9 +7940,8 @@
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" t="str">
-        <f t="shared" si="5"/>
-        <v>東南實業  錢蔭範</v>
+      <c r="A364" t="s">
+        <v>983</v>
       </c>
       <c r="B364" s="20" t="s">
         <v>491</v>
@@ -6909,9 +7951,8 @@
       </c>
     </row>
     <row r="365" spans="1:3">
-      <c r="A365" t="str">
-        <f t="shared" si="5"/>
-        <v>東南實業  陳榮元</v>
+      <c r="A365" t="s">
+        <v>984</v>
       </c>
       <c r="B365" s="20" t="s">
         <v>491</v>
@@ -6921,9 +7962,8 @@
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" t="str">
-        <f t="shared" si="5"/>
-        <v>和益化學工業  黃登選</v>
+      <c r="A366" t="s">
+        <v>985</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>495</v>
@@ -6933,9 +7973,8 @@
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" t="str">
-        <f t="shared" si="5"/>
-        <v>和益化學工業  陳勳</v>
+      <c r="A367" t="s">
+        <v>986</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>495</v>
@@ -6945,9 +7984,8 @@
       </c>
     </row>
     <row r="368" spans="1:3">
-      <c r="A368" t="str">
-        <f t="shared" si="5"/>
-        <v>和益化學工業  黃勝材</v>
+      <c r="A368" t="s">
+        <v>987</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>495</v>
@@ -6957,9 +7995,8 @@
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" t="str">
-        <f t="shared" si="5"/>
-        <v>東聯化學  徐旭東</v>
+      <c r="A369" t="s">
+        <v>988</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>499</v>
@@ -6969,9 +8006,8 @@
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" t="str">
-        <f t="shared" si="5"/>
-        <v>臺灣永光化學工業  陳定川</v>
+      <c r="A370" t="s">
+        <v>989</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>500</v>
@@ -6981,9 +8017,8 @@
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" t="str">
-        <f t="shared" si="5"/>
-        <v>臺灣永光化學工業  陳建信</v>
+      <c r="A371" t="s">
+        <v>990</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>500</v>
@@ -6993,9 +8028,8 @@
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" t="str">
-        <f t="shared" si="5"/>
-        <v>興農  楊文彬</v>
+      <c r="A372" t="s">
+        <v>991</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>503</v>
@@ -7005,9 +8039,8 @@
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" t="str">
-        <f t="shared" si="5"/>
-        <v>興農  洪博彥</v>
+      <c r="A373" t="s">
+        <v>992</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>503</v>
@@ -7017,9 +8050,8 @@
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" t="str">
-        <f t="shared" si="5"/>
-        <v>興農  顏子芳</v>
+      <c r="A374" t="s">
+        <v>993</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>503</v>
@@ -7029,9 +8061,8 @@
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" t="str">
-        <f t="shared" si="5"/>
-        <v>國泰化工廠  曹木生</v>
+      <c r="A375" t="s">
+        <v>994</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>507</v>
@@ -7041,9 +8072,8 @@
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" t="str">
-        <f t="shared" si="5"/>
-        <v>國泰化工廠  應柔爾</v>
+      <c r="A376" t="s">
+        <v>995</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>507</v>
@@ -7053,9 +8083,8 @@
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" t="str">
-        <f t="shared" si="5"/>
-        <v>和桐化學  陳武雄</v>
+      <c r="A377" t="s">
+        <v>996</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>509</v>
@@ -7065,9 +8094,8 @@
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="A378" t="str">
-        <f t="shared" si="5"/>
-        <v>和桐化學  楊猷傑</v>
+      <c r="A378" t="s">
+        <v>997</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>509</v>
@@ -7077,9 +8105,8 @@
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="A379" t="str">
-        <f t="shared" si="5"/>
-        <v>和桐化學  張立秋</v>
+      <c r="A379" t="s">
+        <v>998</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>509</v>
@@ -7089,9 +8116,8 @@
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" t="str">
-        <f t="shared" si="5"/>
-        <v>長興材料工業  高英士</v>
+      <c r="A380" t="s">
+        <v>999</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>513</v>
@@ -7101,9 +8127,8 @@
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" t="str">
-        <f t="shared" si="5"/>
-        <v>長興材料工業  高國倫</v>
+      <c r="A381" t="s">
+        <v>1000</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>513</v>
@@ -7113,9 +8138,8 @@
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" t="str">
-        <f t="shared" si="5"/>
-        <v>中國人造纖維  王朝慶</v>
+      <c r="A382" t="s">
+        <v>1001</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>516</v>
@@ -7125,9 +8149,8 @@
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" t="str">
-        <f t="shared" si="5"/>
-        <v>中國人造纖維  王貴增</v>
+      <c r="A383" t="s">
+        <v>1002</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>516</v>
@@ -7137,9 +8160,8 @@
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" t="str">
-        <f t="shared" si="5"/>
-        <v>中國人造纖維  王貴賢</v>
+      <c r="A384" t="s">
+        <v>1003</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>516</v>
@@ -7149,9 +8171,8 @@
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" t="str">
-        <f t="shared" si="5"/>
-        <v>生達化學製藥  范進財</v>
+      <c r="A385" t="s">
+        <v>1004</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>520</v>
@@ -7161,9 +8182,8 @@
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="A386" t="str">
-        <f t="shared" si="5"/>
-        <v>生達化學製藥  范滋庭</v>
+      <c r="A386" t="s">
+        <v>1005</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>520</v>
@@ -7173,9 +8193,8 @@
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" t="str">
-        <f t="shared" ref="A387:A450" si="6">_xlfn.CONCAT(B387," ",C387)</f>
-        <v>三晃  呂茂賢</v>
+      <c r="A387" t="s">
+        <v>1006</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>523</v>
@@ -7185,9 +8204,8 @@
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  黃沂源</v>
+      <c r="A388" t="s">
+        <v>1007</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>523</v>
@@ -7197,9 +8215,8 @@
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  莊宏忠</v>
+      <c r="A389" t="s">
+        <v>1008</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>523</v>
@@ -7209,9 +8226,8 @@
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  莊宏德</v>
+      <c r="A390" t="s">
+        <v>1009</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>523</v>
@@ -7221,9 +8237,8 @@
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  陳宗賢</v>
+      <c r="A391" t="s">
+        <v>1010</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>523</v>
@@ -7233,9 +8248,8 @@
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="A392" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  鄭銘源</v>
+      <c r="A392" t="s">
+        <v>1011</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>523</v>
@@ -7245,9 +8259,8 @@
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" t="str">
-        <f t="shared" si="6"/>
-        <v>三晃  黃亭棣</v>
+      <c r="A393" t="s">
+        <v>1012</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>523</v>
@@ -7257,9 +8270,8 @@
       </c>
     </row>
     <row r="394" spans="1:3">
-      <c r="A394" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  范振宗</v>
+      <c r="A394" t="s">
+        <v>1013</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>531</v>
@@ -7269,9 +8281,8 @@
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  李金龍</v>
+      <c r="A395" t="s">
+        <v>1014</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>531</v>
@@ -7281,9 +8292,8 @@
       </c>
     </row>
     <row r="396" spans="1:3">
-      <c r="A396" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  鍾榮吉</v>
+      <c r="A396" t="s">
+        <v>1015</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>531</v>
@@ -7293,9 +8303,8 @@
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="A397" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  李復興</v>
+      <c r="A397" t="s">
+        <v>1016</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>531</v>
@@ -7305,9 +8314,8 @@
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  陳吉仲</v>
+      <c r="A398" t="s">
+        <v>1017</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>531</v>
@@ -7317,9 +8325,8 @@
       </c>
     </row>
     <row r="399" spans="1:3">
-      <c r="A399" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  康信鴻</v>
+      <c r="A399" t="s">
+        <v>1018</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>531</v>
@@ -7329,9 +8336,8 @@
       </c>
     </row>
     <row r="400" spans="1:3">
-      <c r="A400" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  黃耀興</v>
+      <c r="A400" t="s">
+        <v>1019</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>531</v>
@@ -7341,9 +8347,8 @@
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" t="str">
-        <f t="shared" si="6"/>
-        <v>台灣肥料  李孫榮</v>
+      <c r="A401" t="s">
+        <v>1020</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>531</v>
@@ -7353,9 +8358,8 @@
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  鄭達才</v>
+      <c r="A402" t="s">
+        <v>1021</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>540</v>
@@ -7365,9 +8369,8 @@
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  林文淵</v>
+      <c r="A403" t="s">
+        <v>1022</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>540</v>
@@ -7377,9 +8380,8 @@
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="A404" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  鍾樂民</v>
+      <c r="A404" t="s">
+        <v>1023</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>540</v>
@@ -7389,9 +8391,8 @@
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  王錫欽</v>
+      <c r="A405" t="s">
+        <v>1024</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>540</v>
@@ -7401,9 +8402,8 @@
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="A406" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  林弘男</v>
+      <c r="A406" t="s">
+        <v>1025</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>540</v>
@@ -7413,9 +8413,8 @@
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="A407" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  何燦穎</v>
+      <c r="A407" t="s">
+        <v>1026</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>540</v>
@@ -7425,9 +8424,8 @@
       </c>
     </row>
     <row r="408" spans="1:3">
-      <c r="A408" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  羅文驥</v>
+      <c r="A408" t="s">
+        <v>1027</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>540</v>
@@ -7437,9 +8435,8 @@
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  杜清芳</v>
+      <c r="A409" t="s">
+        <v>1028</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>540</v>
@@ -7449,9 +8446,8 @@
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="A410" t="str">
-        <f t="shared" si="6"/>
-        <v>中鋼碳素化學  謝文榮</v>
+      <c r="A410" t="s">
+        <v>1029</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>540</v>
@@ -7461,9 +8457,8 @@
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" t="str">
-        <f t="shared" si="6"/>
-        <v>元禎企業  陳安琪</v>
+      <c r="A411" t="s">
+        <v>1030</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>548</v>
@@ -7473,9 +8468,8 @@
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="A412" t="str">
-        <f t="shared" si="6"/>
-        <v>元禎企業  徐振隆</v>
+      <c r="A412" t="s">
+        <v>1031</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>548</v>
@@ -7485,9 +8479,8 @@
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" t="str">
-        <f t="shared" si="6"/>
-        <v>元禎企業  許元禎</v>
+      <c r="A413" t="s">
+        <v>1032</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>548</v>
@@ -7497,9 +8490,8 @@
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" t="str">
-        <f t="shared" si="6"/>
-        <v>永記造漆工業  張添永</v>
+      <c r="A414" t="s">
+        <v>1033</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>552</v>
@@ -7509,9 +8501,8 @@
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" t="str">
-        <f t="shared" si="6"/>
-        <v>永記造漆工業  張德雄</v>
+      <c r="A415" t="s">
+        <v>1034</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>552</v>
@@ -7521,9 +8512,8 @@
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" t="str">
-        <f t="shared" si="6"/>
-        <v>永記造漆工業  沈鴻烈</v>
+      <c r="A416" t="s">
+        <v>1035</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>552</v>
@@ -7533,9 +8523,8 @@
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" t="str">
-        <f t="shared" si="6"/>
-        <v>永記造漆工業  張德仁</v>
+      <c r="A417" t="s">
+        <v>1036</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>552</v>
@@ -7545,9 +8534,8 @@
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" t="str">
-        <f t="shared" si="6"/>
-        <v>臺灣中華化學工業  干文元</v>
+      <c r="A418" t="s">
+        <v>1037</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>557</v>
@@ -7557,9 +8545,8 @@
       </c>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" t="str">
-        <f t="shared" si="6"/>
-        <v>花仙子企業  王堯倫</v>
+      <c r="A419" t="s">
+        <v>1038</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>559</v>
@@ -7569,9 +8556,8 @@
       </c>
     </row>
     <row r="420" spans="1:3">
-      <c r="A420" t="str">
-        <f t="shared" si="6"/>
-        <v>花仙子企業  蔡心心</v>
+      <c r="A420" t="s">
+        <v>1039</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>559</v>
@@ -7581,9 +8567,8 @@
       </c>
     </row>
     <row r="421" spans="1:3">
-      <c r="A421" t="str">
-        <f t="shared" si="6"/>
-        <v>美吾華  李成家</v>
+      <c r="A421" t="s">
+        <v>1040</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>562</v>
@@ -7593,9 +8578,8 @@
       </c>
     </row>
     <row r="422" spans="1:3">
-      <c r="A422" t="str">
-        <f t="shared" si="6"/>
-        <v>毛寶  吳賢泰</v>
+      <c r="A422" t="s">
+        <v>1041</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>564</v>
@@ -7605,9 +8589,8 @@
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="A423" t="str">
-        <f t="shared" si="6"/>
-        <v>毛寶  吳瑞華</v>
+      <c r="A423" t="s">
+        <v>1042</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>564</v>
@@ -7617,9 +8600,8 @@
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" t="str">
-        <f t="shared" si="6"/>
-        <v>五鼎生物技術  沈燕士</v>
+      <c r="A424" t="s">
+        <v>1043</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>567</v>
@@ -7629,9 +8611,8 @@
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" t="str">
-        <f t="shared" si="6"/>
-        <v>杏輝藥品工業  李志文</v>
+      <c r="A425" t="s">
+        <v>1044</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>569</v>
@@ -7641,9 +8622,8 @@
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" t="str">
-        <f t="shared" si="6"/>
-        <v>日勝化工  何文杰</v>
+      <c r="A426" t="s">
+        <v>1045</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>571</v>
@@ -7653,9 +8633,8 @@
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="A427" t="str">
-        <f t="shared" si="6"/>
-        <v>喬山健康科技  羅崑泉</v>
+      <c r="A427" t="s">
+        <v>1046</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>573</v>
@@ -7665,9 +8644,8 @@
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="A428" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  餘光華</v>
+      <c r="A428" t="s">
+        <v>1047</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>575</v>
@@ -7677,9 +8655,8 @@
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  鄭寶清</v>
+      <c r="A429" t="s">
+        <v>1048</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>575</v>
@@ -7689,9 +8666,8 @@
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  邱文安</v>
+      <c r="A430" t="s">
+        <v>1049</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>575</v>
@@ -7701,9 +8677,8 @@
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  林靖</v>
+      <c r="A431" t="s">
+        <v>1050</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>575</v>
@@ -7713,9 +8688,8 @@
       </c>
     </row>
     <row r="432" spans="1:3">
-      <c r="A432" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  吳啟章</v>
+      <c r="A432" t="s">
+        <v>1051</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>575</v>
@@ -7725,9 +8699,8 @@
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="A433" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  吳俊億</v>
+      <c r="A433" t="s">
+        <v>1052</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>575</v>
@@ -7737,9 +8710,8 @@
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="A434" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  洪璽曜</v>
+      <c r="A434" t="s">
+        <v>1053</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>575</v>
@@ -7749,9 +8721,8 @@
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  楊秋興</v>
+      <c r="A435" t="s">
+        <v>1054</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>575</v>
@@ -7761,9 +8732,8 @@
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  陳啟昱</v>
+      <c r="A436" t="s">
+        <v>1055</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>575</v>
@@ -7773,9 +8743,8 @@
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  曾文生</v>
+      <c r="A437" t="s">
+        <v>1056</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>575</v>
@@ -7785,9 +8754,8 @@
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  吳容輝</v>
+      <c r="A438" t="s">
+        <v>1057</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>575</v>
@@ -7797,9 +8765,8 @@
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  劉雅娟</v>
+      <c r="A439" t="s">
+        <v>1058</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>575</v>
@@ -7809,9 +8776,8 @@
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="A440" t="str">
-        <f t="shared" si="6"/>
-        <v>臺鹽實業  丁彥哲</v>
+      <c r="A440" t="s">
+        <v>1059</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>575</v>
@@ -7821,9 +8787,8 @@
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" t="str">
-        <f t="shared" si="6"/>
-        <v>南光化學製藥  陳旗安</v>
+      <c r="A441" t="s">
+        <v>1060</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>588</v>
@@ -7833,9 +8798,8 @@
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="A442" t="str">
-        <f t="shared" si="6"/>
-        <v>南光化學製藥  陳立賢</v>
+      <c r="A442" t="s">
+        <v>1061</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>588</v>
@@ -7845,9 +8809,8 @@
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" t="str">
-        <f t="shared" si="6"/>
-        <v>寶齡富錦生技  林智明</v>
+      <c r="A443" t="s">
+        <v>1062</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>591</v>
@@ -7857,9 +8820,8 @@
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" t="str">
-        <f t="shared" si="6"/>
-        <v>寶齡富錦生技  張立秋</v>
+      <c r="A444" t="s">
+        <v>1063</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>591</v>
@@ -7869,9 +8831,8 @@
       </c>
     </row>
     <row r="445" spans="1:3">
-      <c r="A445" t="str">
-        <f t="shared" si="6"/>
-        <v>中化合成生技  王勳聖</v>
+      <c r="A445" t="s">
+        <v>1064</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>593</v>
@@ -7881,9 +8842,8 @@
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" t="str">
-        <f t="shared" si="6"/>
-        <v>中化合成生技  王謝怡貞</v>
+      <c r="A446" t="s">
+        <v>1065</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>593</v>
@@ -7893,9 +8853,8 @@
       </c>
     </row>
     <row r="447" spans="1:3">
-      <c r="A447" t="str">
-        <f t="shared" si="6"/>
-        <v>勝一化工  孫靜源</v>
+      <c r="A447" t="s">
+        <v>1066</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>594</v>
@@ -7905,9 +8864,8 @@
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="A448" t="str">
-        <f t="shared" si="6"/>
-        <v>展宇科技材料  鄭忠義</v>
+      <c r="A448" t="s">
+        <v>1067</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>596</v>
@@ -7917,9 +8875,8 @@
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" t="str">
-        <f t="shared" si="6"/>
-        <v>展宇科技材料  劉漢瀛</v>
+      <c r="A449" t="s">
+        <v>1068</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>596</v>
@@ -7929,9 +8886,8 @@
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" t="str">
-        <f t="shared" si="6"/>
-        <v>和康生物科技  張立言</v>
+      <c r="A450" t="s">
+        <v>1069</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>599</v>
@@ -7941,9 +8897,8 @@
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="A451" t="str">
-        <f t="shared" ref="A451:A468" si="7">_xlfn.CONCAT(B451," ",C451)</f>
-        <v>和康生物科技  徐立德</v>
+      <c r="A451" t="s">
+        <v>1070</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>599</v>
@@ -7953,9 +8908,8 @@
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" t="str">
-        <f t="shared" si="7"/>
-        <v>和康生物科技  林詠翔</v>
+      <c r="A452" t="s">
+        <v>1071</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>599</v>
@@ -7965,9 +8919,8 @@
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="A453" t="str">
-        <f t="shared" si="7"/>
-        <v>科妍生物科技  韓開程</v>
+      <c r="A453" t="s">
+        <v>1072</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>603</v>
@@ -7977,9 +8930,8 @@
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="A454" t="str">
-        <f t="shared" si="7"/>
-        <v>台灣神隆  鄭高輝</v>
+      <c r="A454" t="s">
+        <v>1073</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>605</v>
@@ -7989,9 +8941,8 @@
       </c>
     </row>
     <row r="455" spans="1:3">
-      <c r="A455" t="str">
-        <f t="shared" si="7"/>
-        <v>台灣神隆  羅智先</v>
+      <c r="A455" t="s">
+        <v>1074</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>605</v>
@@ -8001,9 +8952,8 @@
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" t="str">
-        <f t="shared" si="7"/>
-        <v>美時化學製藥  林東和</v>
+      <c r="A456" t="s">
+        <v>1075</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>606</v>
@@ -8013,9 +8963,8 @@
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" t="str">
-        <f t="shared" si="7"/>
-        <v>美時化學製藥  林群</v>
+      <c r="A457" t="s">
+        <v>1076</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>606</v>
@@ -8025,9 +8974,8 @@
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" t="str">
-        <f t="shared" si="7"/>
-        <v>美時化學製藥   Vilhelm Robert Wessman</v>
+      <c r="A458" t="s">
+        <v>1077</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>606</v>
@@ -8037,9 +8985,8 @@
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" t="str">
-        <f t="shared" si="7"/>
-        <v>台灣玻璃工業  林玉嘉</v>
+      <c r="A459" t="s">
+        <v>1078</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>610</v>
@@ -8049,9 +8996,8 @@
       </c>
     </row>
     <row r="460" spans="1:3">
-      <c r="A460" t="str">
-        <f t="shared" si="7"/>
-        <v>台灣玻璃工業  林伯豐</v>
+      <c r="A460" t="s">
+        <v>1079</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>610</v>
@@ -8061,9 +9007,8 @@
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  傅兆林</v>
+      <c r="A461" t="s">
+        <v>1080</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>613</v>
@@ -8073,9 +9018,8 @@
       </c>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  傅劉滿蘭</v>
+      <c r="A462" t="s">
+        <v>1081</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>613</v>
@@ -8085,9 +9029,8 @@
       </c>
     </row>
     <row r="463" spans="1:3">
-      <c r="A463" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  傅顯貴</v>
+      <c r="A463" t="s">
+        <v>1082</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>613</v>
@@ -8097,9 +9040,8 @@
       </c>
     </row>
     <row r="464" spans="1:3">
-      <c r="A464" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  王旭東</v>
+      <c r="A464" t="s">
+        <v>1083</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>613</v>
@@ -8109,9 +9051,8 @@
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="A465" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  楊克誠</v>
+      <c r="A465" t="s">
+        <v>1084</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>613</v>
@@ -8121,9 +9062,8 @@
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  李左軍</v>
+      <c r="A466" t="s">
+        <v>1085</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>613</v>
@@ -8133,9 +9073,8 @@
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  鍾喜吉</v>
+      <c r="A467" t="s">
+        <v>1086</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>613</v>
@@ -8145,9 +9084,8 @@
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="A468" t="str">
-        <f t="shared" si="7"/>
-        <v>寶徠建設  林瑞山</v>
+      <c r="A468" t="s">
+        <v>1087</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>613</v>
